--- a/output2022.xlsx
+++ b/output2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="416">
   <si>
     <t>1. Chin. Title</t>
   </si>
@@ -217,6 +217,15 @@
     <t>雙子座流星雨 (ZHR=120 )</t>
   </si>
   <si>
+    <t>天琴座流星雨 (ZHR=18 )</t>
+  </si>
+  <si>
+    <t>獵戶座流星雨 (ZHR=15 )</t>
+  </si>
+  <si>
+    <t>獅子座流星雨 (ZHR=15 )</t>
+  </si>
+  <si>
     <t>水星合月（赤經）</t>
   </si>
   <si>
@@ -502,6 +511,15 @@
     <t>Geminids (ZHR=120 )</t>
   </si>
   <si>
+    <t>Lyrids (ZHR=18 )</t>
+  </si>
+  <si>
+    <t>Orionids (ZHR=15 )</t>
+  </si>
+  <si>
+    <t>Leonids (ZHR=15 )</t>
+  </si>
+  <si>
     <t>Mercury Moon Conjunction (right ascension)</t>
   </si>
   <si>
@@ -589,6 +607,24 @@
     <t>Date</t>
   </si>
   <si>
+    <t>04Jan2022</t>
+  </si>
+  <si>
+    <t>12Aug2022</t>
+  </si>
+  <si>
+    <t>11Dec2022</t>
+  </si>
+  <si>
+    <t>22Apr2022</t>
+  </si>
+  <si>
+    <t>22Oct2022</t>
+  </si>
+  <si>
+    <t>17Nov2022</t>
+  </si>
+  <si>
     <t>HKT</t>
   </si>
   <si>
@@ -622,85 +658,85 @@
     <t>17°</t>
   </si>
   <si>
-    <t>405830km</t>
-  </si>
-  <si>
-    <t>404932km</t>
-  </si>
-  <si>
-    <t>404308km</t>
-  </si>
-  <si>
-    <t>404476km</t>
-  </si>
-  <si>
-    <t>405317km</t>
-  </si>
-  <si>
-    <t>406211km</t>
-  </si>
-  <si>
-    <t>406581km</t>
-  </si>
-  <si>
-    <t>406257km</t>
-  </si>
-  <si>
-    <t>405387km</t>
-  </si>
-  <si>
-    <t>404517km</t>
-  </si>
-  <si>
-    <t>404287km</t>
-  </si>
-  <si>
-    <t>404884km</t>
-  </si>
-  <si>
-    <t>405841km</t>
-  </si>
-  <si>
-    <t>358025km</t>
-  </si>
-  <si>
-    <t>362235km</t>
-  </si>
-  <si>
-    <t>367760km</t>
-  </si>
-  <si>
-    <t>369724km</t>
-  </si>
-  <si>
-    <t>365120km</t>
-  </si>
-  <si>
-    <t>360285km</t>
-  </si>
-  <si>
-    <t>357428km</t>
-  </si>
-  <si>
-    <t>357267km</t>
-  </si>
-  <si>
-    <t>359839km</t>
-  </si>
-  <si>
-    <t>364513km</t>
-  </si>
-  <si>
-    <t>369359km</t>
-  </si>
-  <si>
-    <t>368320km</t>
-  </si>
-  <si>
-    <t>362843km</t>
-  </si>
-  <si>
-    <t>358278km</t>
+    <t>405804km</t>
+  </si>
+  <si>
+    <t>404896km</t>
+  </si>
+  <si>
+    <t>404267km</t>
+  </si>
+  <si>
+    <t>404437km</t>
+  </si>
+  <si>
+    <t>405285km</t>
+  </si>
+  <si>
+    <t>406191km</t>
+  </si>
+  <si>
+    <t>406580km</t>
+  </si>
+  <si>
+    <t>406274km</t>
+  </si>
+  <si>
+    <t>405417km</t>
+  </si>
+  <si>
+    <t>404555km</t>
+  </si>
+  <si>
+    <t>404327km</t>
+  </si>
+  <si>
+    <t>404921km</t>
+  </si>
+  <si>
+    <t>405868km</t>
+  </si>
+  <si>
+    <t>358032km</t>
+  </si>
+  <si>
+    <t>362251km</t>
+  </si>
+  <si>
+    <t>367788km</t>
+  </si>
+  <si>
+    <t>369760km</t>
+  </si>
+  <si>
+    <t>365143km</t>
+  </si>
+  <si>
+    <t>360298km</t>
+  </si>
+  <si>
+    <t>357432km</t>
+  </si>
+  <si>
+    <t>357263km</t>
+  </si>
+  <si>
+    <t>359827km</t>
+  </si>
+  <si>
+    <t>364492km</t>
+  </si>
+  <si>
+    <t>369325km</t>
+  </si>
+  <si>
+    <t>368290km</t>
+  </si>
+  <si>
+    <t>362826km</t>
+  </si>
+  <si>
+    <t>358270km</t>
   </si>
   <si>
     <t>152098462km</t>
@@ -1561,7 +1597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F476"/>
+  <dimension ref="A1:F480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1572,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1592,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1">
         <v>44640</v>
@@ -1609,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
         <v>44733</v>
@@ -1626,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1">
         <v>44827</v>
@@ -1643,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1">
         <v>44917</v>
@@ -1660,7 +1696,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1">
         <v>44564</v>
@@ -1677,7 +1713,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1">
         <v>44571</v>
@@ -1694,7 +1730,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1">
         <v>44579</v>
@@ -1711,7 +1747,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1">
         <v>44586</v>
@@ -1728,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1">
         <v>44593</v>
@@ -1745,7 +1781,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1">
         <v>44600</v>
@@ -1762,7 +1798,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1">
         <v>44609</v>
@@ -1779,7 +1815,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1">
         <v>44616</v>
@@ -1796,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1">
         <v>44623</v>
@@ -1813,7 +1849,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C15" s="1">
         <v>44630</v>
@@ -1830,7 +1866,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C16" s="1">
         <v>44638</v>
@@ -1847,7 +1883,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1">
         <v>44645</v>
@@ -1864,7 +1900,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1">
         <v>44652</v>
@@ -1881,7 +1917,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1">
         <v>44660</v>
@@ -1898,7 +1934,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1">
         <v>44668</v>
@@ -1915,7 +1951,7 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1">
         <v>44674</v>
@@ -1932,7 +1968,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C22" s="1">
         <v>44682</v>
@@ -1949,7 +1985,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C23" s="1">
         <v>44690</v>
@@ -1966,7 +2002,7 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C24" s="1">
         <v>44697</v>
@@ -1983,7 +2019,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1">
         <v>44704</v>
@@ -2000,7 +2036,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C26" s="1">
         <v>44711</v>
@@ -2017,7 +2053,7 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C27" s="1">
         <v>44719</v>
@@ -2034,7 +2070,7 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C28" s="1">
         <v>44726</v>
@@ -2051,7 +2087,7 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C29" s="1">
         <v>44733</v>
@@ -2068,7 +2104,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C30" s="1">
         <v>44741</v>
@@ -2085,7 +2121,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C31" s="1">
         <v>44749</v>
@@ -2102,7 +2138,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C32" s="1">
         <v>44756</v>
@@ -2119,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1">
         <v>44762</v>
@@ -2136,7 +2172,7 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1">
         <v>44771</v>
@@ -2153,7 +2189,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1">
         <v>44778</v>
@@ -2170,7 +2206,7 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C36" s="1">
         <v>44785</v>
@@ -2187,7 +2223,7 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C37" s="1">
         <v>44792</v>
@@ -2204,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1">
         <v>44800</v>
@@ -2221,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1">
         <v>44808</v>
@@ -2238,7 +2274,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C40" s="1">
         <v>44814</v>
@@ -2255,7 +2291,7 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C41" s="1">
         <v>44822</v>
@@ -2272,7 +2308,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C42" s="1">
         <v>44830</v>
@@ -2289,7 +2325,7 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1">
         <v>44837</v>
@@ -2306,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C44" s="1">
         <v>44844</v>
@@ -2323,7 +2359,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1">
         <v>44852</v>
@@ -2340,7 +2376,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C46" s="1">
         <v>44859</v>
@@ -2357,7 +2393,7 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C47" s="1">
         <v>44866</v>
@@ -2374,7 +2410,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C48" s="1">
         <v>44873</v>
@@ -2391,7 +2427,7 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C49" s="1">
         <v>44881</v>
@@ -2408,7 +2444,7 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1">
         <v>44889</v>
@@ -2425,7 +2461,7 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1">
         <v>44895</v>
@@ -2442,7 +2478,7 @@
         <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C52" s="1">
         <v>44903</v>
@@ -2459,7 +2495,7 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C53" s="1">
         <v>44911</v>
@@ -2476,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C54" s="1">
         <v>44918</v>
@@ -2493,7 +2529,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C55" s="1">
         <v>44925</v>
@@ -2510,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C56" s="1">
         <v>44579</v>
@@ -2519,7 +2555,7 @@
         <v>0.3253009259259259</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2530,7 +2566,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C57" s="1">
         <v>44756</v>
@@ -2539,7 +2575,7 @@
         <v>0.1094675925925926</v>
       </c>
       <c r="E57" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2550,7 +2586,7 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C58" s="1">
         <v>44584</v>
@@ -2567,7 +2603,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C59" s="1">
         <v>44654</v>
@@ -2584,7 +2620,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C60" s="1">
         <v>44703</v>
@@ -2601,7 +2637,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C61" s="1">
         <v>44759</v>
@@ -2618,7 +2654,7 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C62" s="1">
         <v>44827</v>
@@ -2635,7 +2671,7 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C63" s="1">
         <v>44874</v>
@@ -2652,7 +2688,7 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C64" s="1">
         <v>44570</v>
@@ -2669,7 +2705,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C65" s="1">
         <v>44857</v>
@@ -2686,7 +2722,7 @@
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1">
         <v>44903</v>
@@ -2703,7 +2739,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C67" s="1">
         <v>44625</v>
@@ -2720,7 +2756,7 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C68" s="1">
         <v>44831</v>
@@ -2737,7 +2773,7 @@
         <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C69" s="1">
         <v>44597</v>
@@ -2754,7 +2790,7 @@
         <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C70" s="1">
         <v>44788</v>
@@ -2771,7 +2807,7 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C71" s="1">
         <v>44686</v>
@@ -2788,7 +2824,7 @@
         <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C72" s="1">
         <v>44874</v>
@@ -2805,7 +2841,7 @@
         <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C73" s="1">
         <v>44633</v>
@@ -2822,7 +2858,7 @@
         <v>23</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C74" s="1">
         <v>44821</v>
@@ -2839,7 +2875,7 @@
         <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C75" s="1">
         <v>44577</v>
@@ -2856,7 +2892,7 @@
         <v>25</v>
       </c>
       <c r="B76" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C76" s="1">
         <v>44762</v>
@@ -2873,7 +2909,7 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C77" s="1">
         <v>44640</v>
@@ -2882,7 +2918,7 @@
         <v>0.7257638888888889</v>
       </c>
       <c r="E77" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -2893,7 +2929,7 @@
         <v>27</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C78" s="1">
         <v>44568</v>
@@ -2902,7 +2938,7 @@
         <v>0.7942476851851853</v>
       </c>
       <c r="E78" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -2913,7 +2949,7 @@
         <v>28</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C79" s="1">
         <v>44609</v>
@@ -2922,7 +2958,7 @@
         <v>0.2130902777777778</v>
       </c>
       <c r="E79" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -2933,7 +2969,7 @@
         <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C80" s="1">
         <v>44680</v>
@@ -2942,7 +2978,7 @@
         <v>0.6729166666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -2953,7 +2989,7 @@
         <v>28</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C81" s="1">
         <v>44728</v>
@@ -2962,7 +2998,7 @@
         <v>0.9552430555555556</v>
       </c>
       <c r="E81" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -2973,7 +3009,7 @@
         <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C82" s="1">
         <v>44801</v>
@@ -2982,7 +3018,7 @@
         <v>0.009953703703703704</v>
       </c>
       <c r="E82" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -2993,7 +3029,7 @@
         <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C83" s="1">
         <v>44843</v>
@@ -3002,7 +3038,7 @@
         <v>0.2177199074074074</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3013,7 +3049,7 @@
         <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C84" s="1">
         <v>44916</v>
@@ -3022,7 +3058,7 @@
         <v>0.9801388888888889</v>
       </c>
       <c r="E84" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3033,16 +3069,16 @@
         <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C85" s="1">
         <v>44575</v>
       </c>
       <c r="D85">
-        <v>0.7198726851851851</v>
+        <v>0.7263657407407408</v>
       </c>
       <c r="E85" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="F85">
         <v>3</v>
@@ -3053,16 +3089,16 @@
         <v>29</v>
       </c>
       <c r="B86" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C86" s="1">
         <v>44603</v>
       </c>
       <c r="D86">
-        <v>0.4394212962962963</v>
+        <v>0.4424652777777778</v>
       </c>
       <c r="E86" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="F86">
         <v>3</v>
@@ -3073,16 +3109,16 @@
         <v>29</v>
       </c>
       <c r="B87" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C87" s="1">
         <v>44631</v>
       </c>
       <c r="D87">
-        <v>0.2935300925925926</v>
+        <v>0.2942013888888889</v>
       </c>
       <c r="E87" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="F87">
         <v>3</v>
@@ -3093,16 +3129,16 @@
         <v>29</v>
       </c>
       <c r="B88" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C88" s="1">
         <v>44659</v>
       </c>
       <c r="D88">
-        <v>0.1340625</v>
+        <v>0.1325115740740741</v>
       </c>
       <c r="E88" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="F88">
         <v>3</v>
@@ -3113,16 +3149,16 @@
         <v>29</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C89" s="1">
         <v>44686</v>
       </c>
       <c r="D89">
-        <v>0.8695833333333334</v>
+        <v>0.8653009259259258</v>
       </c>
       <c r="E89" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -3133,16 +3169,16 @@
         <v>29</v>
       </c>
       <c r="B90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C90" s="1">
-        <v>44714</v>
+        <v>44686</v>
       </c>
       <c r="D90">
-        <v>0.3922916666666667</v>
+        <v>0.8653240740740741</v>
       </c>
       <c r="E90" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="F90">
         <v>3</v>
@@ -3153,16 +3189,16 @@
         <v>29</v>
       </c>
       <c r="B91" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C91" s="1">
-        <v>44741</v>
+        <v>44714</v>
       </c>
       <c r="D91">
-        <v>0.5999884259259259</v>
+        <v>0.3842592592592593</v>
       </c>
       <c r="E91" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F91">
         <v>3</v>
@@ -3173,16 +3209,16 @@
         <v>29</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C92" s="1">
-        <v>44768</v>
+        <v>44741</v>
       </c>
       <c r="D92">
-        <v>0.7736921296296296</v>
+        <v>0.5889467592592592</v>
       </c>
       <c r="E92" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F92">
         <v>3</v>
@@ -3193,16 +3229,16 @@
         <v>29</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C93" s="1">
-        <v>44796</v>
+        <v>44768</v>
       </c>
       <c r="D93">
-        <v>0.2493518518518519</v>
+        <v>0.765150462962963</v>
       </c>
       <c r="E93" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="F93">
         <v>3</v>
@@ -3213,16 +3249,16 @@
         <v>29</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C94" s="1">
-        <v>44823</v>
+        <v>44796</v>
       </c>
       <c r="D94">
-        <v>0.9486805555555554</v>
+        <v>0.2446643518518519</v>
       </c>
       <c r="E94" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="F94">
         <v>3</v>
@@ -3233,16 +3269,16 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C95" s="1">
-        <v>44851</v>
+        <v>44823</v>
       </c>
       <c r="D95">
-        <v>0.7637152777777777</v>
+        <v>0.9468171296296295</v>
       </c>
       <c r="E95" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="F95">
         <v>3</v>
@@ -3253,16 +3289,16 @@
         <v>29</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C96" s="1">
-        <v>44879</v>
+        <v>44851</v>
       </c>
       <c r="D96">
-        <v>0.6083101851851852</v>
+        <v>0.7641087962962962</v>
       </c>
       <c r="E96" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F96">
         <v>3</v>
@@ -3273,16 +3309,16 @@
         <v>29</v>
       </c>
       <c r="B97" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C97" s="1">
-        <v>44907</v>
+        <v>44879</v>
       </c>
       <c r="D97">
-        <v>0.3471064814814815</v>
+        <v>0.6110300925925926</v>
       </c>
       <c r="E97" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="F97">
         <v>3</v>
@@ -3290,19 +3326,19 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C98" s="1">
-        <v>44563</v>
+        <v>44907</v>
       </c>
       <c r="D98">
-        <v>0.2839930555555555</v>
+        <v>0.3530671296296297</v>
       </c>
       <c r="E98" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F98">
         <v>3</v>
@@ -3313,16 +3349,16 @@
         <v>30</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C99" s="1">
-        <v>44591</v>
+        <v>44563</v>
       </c>
       <c r="D99">
-        <v>0.6274652777777778</v>
+        <v>0.2885416666666667</v>
       </c>
       <c r="E99" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F99">
         <v>3</v>
@@ -3333,16 +3369,16 @@
         <v>30</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C100" s="1">
-        <v>44619</v>
+        <v>44591</v>
       </c>
       <c r="D100">
-        <v>0.2611805555555556</v>
+        <v>0.6326504629629629</v>
       </c>
       <c r="E100" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="F100">
         <v>3</v>
@@ -3353,16 +3389,16 @@
         <v>30</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C101" s="1">
-        <v>44644</v>
+        <v>44619</v>
       </c>
       <c r="D101">
-        <v>0.3216435185185185</v>
+        <v>0.2674305555555556</v>
       </c>
       <c r="E101" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="F101">
         <v>3</v>
@@ -3373,16 +3409,16 @@
         <v>30</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C102" s="1">
-        <v>44670</v>
+        <v>44644</v>
       </c>
       <c r="D102">
-        <v>0.9731828703703704</v>
+        <v>0.3176157407407408</v>
       </c>
       <c r="E102" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F102">
         <v>3</v>
@@ -3393,16 +3429,16 @@
         <v>30</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C103" s="1">
-        <v>44698</v>
+        <v>44670</v>
       </c>
       <c r="D103">
-        <v>0.9818981481481481</v>
+        <v>0.9676851851851852</v>
       </c>
       <c r="E103" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="F103">
         <v>3</v>
@@ -3413,16 +3449,16 @@
         <v>30</v>
       </c>
       <c r="B104" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C104" s="1">
-        <v>44727</v>
+        <v>44698</v>
       </c>
       <c r="D104">
-        <v>0.3123958333333334</v>
+        <v>0.9771180555555555</v>
       </c>
       <c r="E104" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F104">
         <v>3</v>
@@ -3433,16 +3469,16 @@
         <v>30</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C105" s="1">
-        <v>44755</v>
+        <v>44727</v>
       </c>
       <c r="D105">
-        <v>0.7166203703703703</v>
+        <v>0.3079398148148149</v>
       </c>
       <c r="E105" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F105">
         <v>3</v>
@@ -3453,16 +3489,16 @@
         <v>30</v>
       </c>
       <c r="B106" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C106" s="1">
-        <v>44784</v>
+        <v>44755</v>
       </c>
       <c r="D106">
-        <v>0.05254629629629629</v>
+        <v>0.7121759259259259</v>
       </c>
       <c r="E106" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="F106">
         <v>3</v>
@@ -3473,16 +3509,16 @@
         <v>30</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C107" s="1">
-        <v>44812</v>
+        <v>44784</v>
       </c>
       <c r="D107">
-        <v>0.1016666666666667</v>
+        <v>0.04778935185185185</v>
       </c>
       <c r="E107" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F107">
         <v>3</v>
@@ -3493,16 +3529,16 @@
         <v>30</v>
       </c>
       <c r="B108" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C108" s="1">
-        <v>44839</v>
+        <v>44812</v>
       </c>
       <c r="D108">
-        <v>0.02836805555555555</v>
+        <v>0.09623842592592592</v>
       </c>
       <c r="E108" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F108">
         <v>3</v>
@@ -3513,16 +3549,16 @@
         <v>30</v>
       </c>
       <c r="B109" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C109" s="1">
-        <v>44863</v>
+        <v>44839</v>
       </c>
       <c r="D109">
-        <v>0.9353472222222222</v>
+        <v>0.02339120370370371</v>
       </c>
       <c r="E109" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F109">
         <v>3</v>
@@ -3533,16 +3569,16 @@
         <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C110" s="1">
-        <v>44891</v>
+        <v>44863</v>
       </c>
       <c r="D110">
-        <v>0.3914351851851852</v>
+        <v>0.9415393518518518</v>
       </c>
       <c r="E110" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F110">
         <v>3</v>
@@ -3553,16 +3589,16 @@
         <v>30</v>
       </c>
       <c r="B111" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C111" s="1">
-        <v>44919</v>
+        <v>44891</v>
       </c>
       <c r="D111">
-        <v>0.6806944444444444</v>
+        <v>0.396712962962963</v>
       </c>
       <c r="E111" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F111">
         <v>3</v>
@@ -3570,19 +3606,19 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C112" s="1">
-        <v>44746</v>
+        <v>44919</v>
       </c>
       <c r="D112">
-        <v>0.6323958333333334</v>
+        <v>0.6852893518518518</v>
       </c>
       <c r="E112" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F112">
         <v>3</v>
@@ -3590,19 +3626,19 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B113" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C113" s="1">
-        <v>44565</v>
+        <v>44746</v>
       </c>
       <c r="D113">
-        <v>0.6211342592592592</v>
+        <v>0.6323958333333334</v>
       </c>
       <c r="E113" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F113">
         <v>3</v>
@@ -3610,19 +3646,19 @@
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C114" s="1">
         <v>44565</v>
       </c>
       <c r="D114">
-        <v>0.3177314814814815</v>
+        <v>0.6211342592592592</v>
       </c>
       <c r="E114" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F114">
         <v>3</v>
@@ -3633,16 +3669,16 @@
         <v>33</v>
       </c>
       <c r="B115" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C115" s="1">
-        <v>44592</v>
+        <v>44565</v>
       </c>
       <c r="D115">
-        <v>0.276412037037037</v>
+        <v>0.3177314814814815</v>
       </c>
       <c r="E115" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="F115">
         <v>3</v>
@@ -3653,16 +3689,16 @@
         <v>33</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C116" s="1">
-        <v>44621</v>
+        <v>44592</v>
       </c>
       <c r="D116">
-        <v>0.1452662037037037</v>
+        <v>0.276412037037037</v>
       </c>
       <c r="E116" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="F116">
         <v>3</v>
@@ -3673,16 +3709,16 @@
         <v>33</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C117" s="1">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="D117">
-        <v>0.5702199074074074</v>
+        <v>0.1452662037037037</v>
       </c>
       <c r="E117" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F117">
         <v>3</v>
@@ -3693,16 +3729,16 @@
         <v>33</v>
       </c>
       <c r="B118" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C118" s="1">
-        <v>44683</v>
+        <v>44652</v>
       </c>
       <c r="D118">
-        <v>0.9966550925925927</v>
+        <v>0.5702199074074074</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F118">
         <v>3</v>
@@ -3713,16 +3749,16 @@
         <v>33</v>
       </c>
       <c r="B119" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C119" s="1">
-        <v>44710</v>
+        <v>44683</v>
       </c>
       <c r="D119">
-        <v>0.8674421296296296</v>
+        <v>0.9966550925925927</v>
       </c>
       <c r="E119" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="F119">
         <v>3</v>
@@ -3733,16 +3769,16 @@
         <v>33</v>
       </c>
       <c r="B120" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C120" s="1">
-        <v>44739</v>
+        <v>44710</v>
       </c>
       <c r="D120">
-        <v>0.7638541666666666</v>
+        <v>0.8674421296296296</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -3753,16 +3789,16 @@
         <v>33</v>
       </c>
       <c r="B121" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C121" s="1">
-        <v>44772</v>
+        <v>44739</v>
       </c>
       <c r="D121">
-        <v>0.195787037037037</v>
+        <v>0.7638541666666666</v>
       </c>
       <c r="E121" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F121">
         <v>3</v>
@@ -3773,16 +3809,16 @@
         <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C122" s="1">
-        <v>44802</v>
+        <v>44772</v>
       </c>
       <c r="D122">
-        <v>0.999548611111111</v>
+        <v>0.195787037037037</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F122">
         <v>3</v>
@@ -3793,16 +3829,16 @@
         <v>33</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C123" s="1">
-        <v>44829</v>
+        <v>44802</v>
       </c>
       <c r="D123">
-        <v>0.8877314814814815</v>
+        <v>0.999548611111111</v>
       </c>
       <c r="E123" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F123">
         <v>3</v>
@@ -3813,16 +3849,16 @@
         <v>33</v>
       </c>
       <c r="B124" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C124" s="1">
-        <v>44858</v>
+        <v>44829</v>
       </c>
       <c r="D124">
-        <v>0.9887499999999999</v>
+        <v>0.8877314814814815</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="F124">
         <v>3</v>
@@ -3833,16 +3869,16 @@
         <v>33</v>
       </c>
       <c r="B125" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C125" s="1">
-        <v>44889</v>
+        <v>44858</v>
       </c>
       <c r="D125">
-        <v>0.9768171296296296</v>
+        <v>0.9887499999999999</v>
       </c>
       <c r="E125" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="F125">
         <v>3</v>
@@ -3853,16 +3889,16 @@
         <v>33</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C126" s="1">
-        <v>44920</v>
+        <v>44889</v>
       </c>
       <c r="D126">
-        <v>0.1071296296296296</v>
+        <v>0.9768171296296296</v>
       </c>
       <c r="E126" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F126">
         <v>3</v>
@@ -3870,19 +3906,19 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C127" s="1">
-        <v>44564</v>
+        <v>44920</v>
       </c>
       <c r="D127">
-        <v>0.8396759259259259</v>
+        <v>0.1071296296296296</v>
       </c>
       <c r="E127" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="F127">
         <v>3</v>
@@ -3893,19 +3929,19 @@
         <v>34</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C128" s="1">
-        <v>44591</v>
+        <v>44564</v>
       </c>
       <c r="D128">
-        <v>0.2206712962962963</v>
+        <v>0.8396759259259259</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3913,19 +3949,19 @@
         <v>34</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C129" s="1">
         <v>44591</v>
       </c>
       <c r="D129">
-        <v>0.6217824074074073</v>
+        <v>0.2206712962962963</v>
       </c>
       <c r="E129" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3933,19 +3969,19 @@
         <v>34</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C130" s="1">
-        <v>44619</v>
+        <v>44591</v>
       </c>
       <c r="D130">
-        <v>0.7777083333333333</v>
+        <v>0.6217824074074073</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3953,16 +3989,16 @@
         <v>34</v>
       </c>
       <c r="B131" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C131" s="1">
-        <v>44648</v>
+        <v>44619</v>
       </c>
       <c r="D131">
-        <v>0.8785648148148147</v>
+        <v>0.7777083333333333</v>
       </c>
       <c r="E131" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="F131">
         <v>2</v>
@@ -3973,16 +4009,16 @@
         <v>34</v>
       </c>
       <c r="B132" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C132" s="1">
-        <v>44678</v>
+        <v>44648</v>
       </c>
       <c r="D132">
-        <v>0.6459490740740741</v>
+        <v>0.8785648148148147</v>
       </c>
       <c r="E132" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -3993,16 +4029,16 @@
         <v>34</v>
       </c>
       <c r="B133" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C133" s="1">
-        <v>44708</v>
+        <v>44678</v>
       </c>
       <c r="D133">
-        <v>0.5126041666666666</v>
+        <v>0.6459490740740741</v>
       </c>
       <c r="E133" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -4013,19 +4049,19 @@
         <v>34</v>
       </c>
       <c r="B134" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C134" s="1">
-        <v>44738</v>
+        <v>44708</v>
       </c>
       <c r="D134">
-        <v>0.7280902777777777</v>
+        <v>0.5126041666666666</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F134">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -4033,16 +4069,16 @@
         <v>34</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C135" s="1">
-        <v>44768</v>
+        <v>44738</v>
       </c>
       <c r="D135">
-        <v>0.9389699074074075</v>
+        <v>0.7280902777777777</v>
       </c>
       <c r="E135" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F135">
         <v>3</v>
@@ -4053,16 +4089,16 @@
         <v>34</v>
       </c>
       <c r="B136" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C136" s="1">
-        <v>44799</v>
+        <v>44768</v>
       </c>
       <c r="D136">
-        <v>0.1797800925925926</v>
+        <v>0.9389699074074075</v>
       </c>
       <c r="E136" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="F136">
         <v>3</v>
@@ -4073,16 +4109,16 @@
         <v>34</v>
       </c>
       <c r="B137" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C137" s="1">
-        <v>44829</v>
+        <v>44799</v>
       </c>
       <c r="D137">
-        <v>0.7190046296296296</v>
+        <v>0.1797800925925926</v>
       </c>
       <c r="E137" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F137">
         <v>3</v>
@@ -4093,16 +4129,16 @@
         <v>34</v>
       </c>
       <c r="B138" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C138" s="1">
-        <v>44859</v>
+        <v>44829</v>
       </c>
       <c r="D138">
-        <v>0.8807754629629629</v>
+        <v>0.7190046296296296</v>
       </c>
       <c r="E138" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F138">
         <v>3</v>
@@ -4113,16 +4149,16 @@
         <v>34</v>
       </c>
       <c r="B139" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C139" s="1">
-        <v>44889</v>
+        <v>44859</v>
       </c>
       <c r="D139">
-        <v>0.9386458333333333</v>
+        <v>0.8807754629629629</v>
       </c>
       <c r="E139" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="F139">
         <v>3</v>
@@ -4133,16 +4169,16 @@
         <v>34</v>
       </c>
       <c r="B140" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C140" s="1">
-        <v>44919</v>
+        <v>44889</v>
       </c>
       <c r="D140">
-        <v>0.9154050925925925</v>
+        <v>0.9386458333333333</v>
       </c>
       <c r="E140" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="F140">
         <v>3</v>
@@ -4150,19 +4186,19 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B141" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C141" s="1">
-        <v>44562</v>
+        <v>44919</v>
       </c>
       <c r="D141">
-        <v>0.09939814814814814</v>
+        <v>0.9154050925925925</v>
       </c>
       <c r="E141" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="F141">
         <v>3</v>
@@ -4173,19 +4209,19 @@
         <v>35</v>
       </c>
       <c r="B142" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C142" s="1">
-        <v>44590</v>
+        <v>44562</v>
       </c>
       <c r="D142">
-        <v>0.9423611111111111</v>
+        <v>0.09939814814814814</v>
       </c>
       <c r="E142" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="F142">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4193,16 +4229,16 @@
         <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C143" s="1">
-        <v>44619</v>
+        <v>44590</v>
       </c>
       <c r="D143">
-        <v>0.7972800925925926</v>
+        <v>0.9423611111111111</v>
       </c>
       <c r="E143" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -4213,16 +4249,16 @@
         <v>35</v>
       </c>
       <c r="B144" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C144" s="1">
-        <v>44648</v>
+        <v>44619</v>
       </c>
       <c r="D144">
-        <v>0.654699074074074</v>
+        <v>0.7972800925925926</v>
       </c>
       <c r="E144" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="F144">
         <v>2</v>
@@ -4233,16 +4269,16 @@
         <v>35</v>
       </c>
       <c r="B145" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C145" s="1">
-        <v>44677</v>
+        <v>44648</v>
       </c>
       <c r="D145">
-        <v>0.5121990740740741</v>
+        <v>0.654699074074074</v>
       </c>
       <c r="E145" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -4253,19 +4289,19 @@
         <v>35</v>
       </c>
       <c r="B146" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C146" s="1">
-        <v>44706</v>
+        <v>44677</v>
       </c>
       <c r="D146">
-        <v>0.3288425925925926</v>
+        <v>0.5121990740740741</v>
       </c>
       <c r="E146" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4273,16 +4309,16 @@
         <v>35</v>
       </c>
       <c r="B147" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C147" s="1">
-        <v>44735</v>
+        <v>44706</v>
       </c>
       <c r="D147">
-        <v>0.08542824074074074</v>
+        <v>0.3288425925925926</v>
       </c>
       <c r="E147" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -4293,16 +4329,16 @@
         <v>35</v>
       </c>
       <c r="B148" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C148" s="1">
-        <v>44763</v>
+        <v>44735</v>
       </c>
       <c r="D148">
-        <v>0.9549768518518519</v>
+        <v>0.08542824074074074</v>
       </c>
       <c r="E148" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -4313,16 +4349,16 @@
         <v>35</v>
       </c>
       <c r="B149" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C149" s="1">
-        <v>44792</v>
+        <v>44763</v>
       </c>
       <c r="D149">
-        <v>0.7923032407407408</v>
+        <v>0.9549768518518519</v>
       </c>
       <c r="E149" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -4333,16 +4369,16 @@
         <v>35</v>
       </c>
       <c r="B150" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C150" s="1">
-        <v>44821</v>
+        <v>44792</v>
       </c>
       <c r="D150">
-        <v>0.4792013888888889</v>
+        <v>0.7923032407407408</v>
       </c>
       <c r="E150" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -4353,16 +4389,16 @@
         <v>35</v>
       </c>
       <c r="B151" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C151" s="1">
-        <v>44849</v>
+        <v>44821</v>
       </c>
       <c r="D151">
-        <v>0.5703819444444445</v>
+        <v>0.4792013888888889</v>
       </c>
       <c r="E151" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -4373,16 +4409,16 @@
         <v>35</v>
       </c>
       <c r="B152" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C152" s="1">
-        <v>44876</v>
+        <v>44849</v>
       </c>
       <c r="D152">
-        <v>0.8035532407407407</v>
+        <v>0.5703819444444445</v>
       </c>
       <c r="E152" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -4393,16 +4429,16 @@
         <v>35</v>
       </c>
       <c r="B153" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C153" s="1">
-        <v>44903</v>
+        <v>44876</v>
       </c>
       <c r="D153">
-        <v>0.5161226851851851</v>
+        <v>0.8035532407407407</v>
       </c>
       <c r="E153" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -4410,22 +4446,22 @@
     </row>
     <row r="154" spans="1:6">
       <c r="A154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B154" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C154" s="1">
-        <v>44567</v>
+        <v>44903</v>
       </c>
       <c r="D154">
-        <v>0.3578587962962963</v>
+        <v>0.5161226851851851</v>
       </c>
       <c r="E154" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F154">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4433,19 +4469,19 @@
         <v>36</v>
       </c>
       <c r="B155" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C155" s="1">
-        <v>44595</v>
+        <v>44567</v>
       </c>
       <c r="D155">
-        <v>0.2466666666666667</v>
+        <v>0.3578587962962963</v>
       </c>
       <c r="E155" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="F155">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4453,16 +4489,16 @@
         <v>36</v>
       </c>
       <c r="B156" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C156" s="1">
-        <v>44623</v>
+        <v>44595</v>
       </c>
       <c r="D156">
-        <v>0.1548148148148148</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="E156" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="F156">
         <v>3</v>
@@ -4473,16 +4509,16 @@
         <v>36</v>
       </c>
       <c r="B157" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C157" s="1">
-        <v>44651</v>
+        <v>44623</v>
       </c>
       <c r="D157">
-        <v>0.01993055555555556</v>
+        <v>0.1548148148148148</v>
       </c>
       <c r="E157" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="F157">
         <v>3</v>
@@ -4493,19 +4529,19 @@
         <v>36</v>
       </c>
       <c r="B158" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C158" s="1">
-        <v>44678</v>
+        <v>44651</v>
       </c>
       <c r="D158">
-        <v>0.8252199074074075</v>
+        <v>0.01993055555555556</v>
       </c>
       <c r="E158" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4513,19 +4549,19 @@
         <v>36</v>
       </c>
       <c r="B159" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C159" s="1">
-        <v>44706</v>
+        <v>44678</v>
       </c>
       <c r="D159">
-        <v>0.5422106481481481</v>
+        <v>0.8252199074074075</v>
       </c>
       <c r="E159" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4533,16 +4569,16 @@
         <v>36</v>
       </c>
       <c r="B160" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C160" s="1">
-        <v>44733</v>
+        <v>44706</v>
       </c>
       <c r="D160">
-        <v>0.9357986111111111</v>
+        <v>0.5422106481481481</v>
       </c>
       <c r="E160" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -4553,16 +4589,16 @@
         <v>36</v>
       </c>
       <c r="B161" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C161" s="1">
-        <v>44761</v>
+        <v>44733</v>
       </c>
       <c r="D161">
-        <v>0.5127546296296296</v>
+        <v>0.9357986111111111</v>
       </c>
       <c r="E161" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -4573,16 +4609,16 @@
         <v>36</v>
       </c>
       <c r="B162" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C162" s="1">
-        <v>44788</v>
+        <v>44761</v>
       </c>
       <c r="D162">
-        <v>0.7550810185185185</v>
+        <v>0.5127546296296296</v>
       </c>
       <c r="E162" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -4593,16 +4629,16 @@
         <v>36</v>
       </c>
       <c r="B163" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C163" s="1">
-        <v>44816</v>
+        <v>44788</v>
       </c>
       <c r="D163">
-        <v>0.08928240740740741</v>
+        <v>0.7550810185185185</v>
       </c>
       <c r="E163" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -4613,16 +4649,16 @@
         <v>36</v>
       </c>
       <c r="B164" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C164" s="1">
-        <v>44843</v>
+        <v>44816</v>
       </c>
       <c r="D164">
-        <v>0.2299652777777778</v>
+        <v>0.08928240740740741</v>
       </c>
       <c r="E164" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -4633,16 +4669,16 @@
         <v>36</v>
       </c>
       <c r="B165" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C165" s="1">
-        <v>44870</v>
+        <v>44843</v>
       </c>
       <c r="D165">
-        <v>0.2929166666666667</v>
+        <v>0.2299652777777778</v>
       </c>
       <c r="E165" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -4653,16 +4689,16 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C166" s="1">
-        <v>44897</v>
+        <v>44870</v>
       </c>
       <c r="D166">
-        <v>0.4099305555555556</v>
+        <v>0.2929166666666667</v>
       </c>
       <c r="E166" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -4673,16 +4709,16 @@
         <v>36</v>
       </c>
       <c r="B167" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C167" s="1">
-        <v>44924</v>
+        <v>44897</v>
       </c>
       <c r="D167">
-        <v>0.9343865740740741</v>
+        <v>0.4099305555555556</v>
       </c>
       <c r="E167" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -4690,22 +4726,22 @@
     </row>
     <row r="168" spans="1:6">
       <c r="A168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B168" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C168" s="1">
-        <v>44566</v>
+        <v>44924</v>
       </c>
       <c r="D168">
-        <v>0.09177083333333334</v>
+        <v>0.9343865740740741</v>
       </c>
       <c r="E168" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F168">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4713,16 +4749,16 @@
         <v>37</v>
       </c>
       <c r="B169" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C169" s="1">
-        <v>44593</v>
+        <v>44566</v>
       </c>
       <c r="D169">
-        <v>0.8621412037037036</v>
+        <v>0.09177083333333334</v>
       </c>
       <c r="E169" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="F169">
         <v>3</v>
@@ -4733,16 +4769,16 @@
         <v>37</v>
       </c>
       <c r="B170" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C170" s="1">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="D170">
-        <v>0.5349305555555556</v>
+        <v>0.8621412037037036</v>
       </c>
       <c r="E170" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="F170">
         <v>3</v>
@@ -4753,19 +4789,19 @@
         <v>37</v>
       </c>
       <c r="B171" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C171" s="1">
-        <v>44648</v>
+        <v>44621</v>
       </c>
       <c r="D171">
-        <v>0.8981481481481483</v>
+        <v>0.5349305555555556</v>
       </c>
       <c r="E171" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4773,19 +4809,19 @@
         <v>37</v>
       </c>
       <c r="B172" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C172" s="1">
-        <v>44676</v>
+        <v>44648</v>
       </c>
       <c r="D172">
-        <v>0.4576157407407408</v>
+        <v>0.8981481481481483</v>
       </c>
       <c r="E172" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4793,16 +4829,16 @@
         <v>37</v>
       </c>
       <c r="B173" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C173" s="1">
-        <v>44703</v>
+        <v>44676</v>
       </c>
       <c r="D173">
-        <v>0.6669328703703704</v>
+        <v>0.4576157407407408</v>
       </c>
       <c r="E173" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -4813,16 +4849,16 @@
         <v>37</v>
       </c>
       <c r="B174" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C174" s="1">
-        <v>44730</v>
+        <v>44703</v>
       </c>
       <c r="D174">
-        <v>0.8556828703703704</v>
+        <v>0.6669328703703704</v>
       </c>
       <c r="E174" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -4833,16 +4869,16 @@
         <v>37</v>
       </c>
       <c r="B175" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C175" s="1">
-        <v>44758</v>
+        <v>44730</v>
       </c>
       <c r="D175">
-        <v>0.3656944444444445</v>
+        <v>0.8556828703703704</v>
       </c>
       <c r="E175" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -4853,16 +4889,16 @@
         <v>37</v>
       </c>
       <c r="B176" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C176" s="1">
-        <v>44785</v>
+        <v>44758</v>
       </c>
       <c r="D176">
-        <v>0.550474537037037</v>
+        <v>0.3656944444444445</v>
       </c>
       <c r="E176" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -4873,16 +4909,16 @@
         <v>37</v>
       </c>
       <c r="B177" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C177" s="1">
-        <v>44812</v>
+        <v>44785</v>
       </c>
       <c r="D177">
-        <v>0.8465277777777778</v>
+        <v>0.550474537037037</v>
       </c>
       <c r="E177" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -4893,16 +4929,16 @@
         <v>37</v>
       </c>
       <c r="B178" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C178" s="1">
-        <v>44840</v>
+        <v>44812</v>
       </c>
       <c r="D178">
-        <v>0.1699421296296296</v>
+        <v>0.8465277777777778</v>
       </c>
       <c r="E178" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -4913,16 +4949,16 @@
         <v>37</v>
       </c>
       <c r="B179" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C179" s="1">
-        <v>44867</v>
+        <v>44840</v>
       </c>
       <c r="D179">
-        <v>0.2882175925925926</v>
+        <v>0.1699421296296296</v>
       </c>
       <c r="E179" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -4933,16 +4969,16 @@
         <v>37</v>
       </c>
       <c r="B180" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C180" s="1">
-        <v>44894</v>
+        <v>44867</v>
       </c>
       <c r="D180">
-        <v>0.5642013888888889</v>
+        <v>0.2882175925925926</v>
       </c>
       <c r="E180" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -4953,39 +4989,39 @@
         <v>37</v>
       </c>
       <c r="B181" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C181" s="1">
-        <v>44922</v>
+        <v>44894</v>
       </c>
       <c r="D181">
-        <v>0.1045601851851852</v>
+        <v>0.5642013888888889</v>
       </c>
       <c r="E181" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F181">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6">
       <c r="A182" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B182" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C182" s="1">
-        <v>44572</v>
+        <v>44922</v>
       </c>
       <c r="D182">
-        <v>0.9149189814814814</v>
+        <v>0.1045601851851852</v>
       </c>
       <c r="E182" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4993,16 +5029,16 @@
         <v>38</v>
       </c>
       <c r="B183" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C183" s="1">
-        <v>44600</v>
+        <v>44572</v>
       </c>
       <c r="D183">
-        <v>0.204675925925926</v>
+        <v>0.9149189814814814</v>
       </c>
       <c r="E183" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -5013,19 +5049,19 @@
         <v>38</v>
       </c>
       <c r="B184" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C184" s="1">
-        <v>44627</v>
+        <v>44600</v>
       </c>
       <c r="D184">
-        <v>0.6264814814814815</v>
+        <v>0.204675925925926</v>
       </c>
       <c r="E184" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5033,19 +5069,19 @@
         <v>38</v>
       </c>
       <c r="B185" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C185" s="1">
-        <v>44655</v>
+        <v>44627</v>
       </c>
       <c r="D185">
-        <v>0.08820601851851852</v>
+        <v>0.6264814814814815</v>
       </c>
       <c r="E185" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="F185">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5053,16 +5089,16 @@
         <v>38</v>
       </c>
       <c r="B186" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C186" s="1">
-        <v>44682</v>
+        <v>44655</v>
       </c>
       <c r="D186">
-        <v>0.5368287037037037</v>
+        <v>0.08820601851851852</v>
       </c>
       <c r="E186" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F186">
         <v>3</v>
@@ -5073,16 +5109,16 @@
         <v>38</v>
       </c>
       <c r="B187" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C187" s="1">
-        <v>44709</v>
+        <v>44682</v>
       </c>
       <c r="D187">
-        <v>0.9309837962962962</v>
+        <v>0.5368287037037037</v>
       </c>
       <c r="E187" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="F187">
         <v>3</v>
@@ -5093,19 +5129,19 @@
         <v>38</v>
       </c>
       <c r="B188" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C188" s="1">
-        <v>44737</v>
+        <v>44709</v>
       </c>
       <c r="D188">
-        <v>0.2201736111111111</v>
+        <v>0.9309837962962962</v>
       </c>
       <c r="E188" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5113,19 +5149,19 @@
         <v>38</v>
       </c>
       <c r="B189" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C189" s="1">
-        <v>44764</v>
+        <v>44737</v>
       </c>
       <c r="D189">
-        <v>0.6587268518518519</v>
+        <v>0.2201736111111111</v>
       </c>
       <c r="E189" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5133,16 +5169,16 @@
         <v>38</v>
       </c>
       <c r="B190" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C190" s="1">
-        <v>44791</v>
+        <v>44764</v>
       </c>
       <c r="D190">
-        <v>0.8883333333333333</v>
+        <v>0.6587268518518519</v>
       </c>
       <c r="E190" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -5153,16 +5189,16 @@
         <v>38</v>
       </c>
       <c r="B191" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C191" s="1">
-        <v>44819</v>
+        <v>44791</v>
       </c>
       <c r="D191">
-        <v>0.3336226851851852</v>
+        <v>0.8883333333333333</v>
       </c>
       <c r="E191" t="s">
-        <v>303</v>
+        <v>262</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -5173,16 +5209,16 @@
         <v>38</v>
       </c>
       <c r="B192" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C192" s="1">
-        <v>44846</v>
+        <v>44819</v>
       </c>
       <c r="D192">
-        <v>0.6028356481481482</v>
+        <v>0.3336226851851852</v>
       </c>
       <c r="E192" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -5193,16 +5229,16 @@
         <v>38</v>
       </c>
       <c r="B193" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C193" s="1">
-        <v>44873</v>
+        <v>44846</v>
       </c>
       <c r="D193">
-        <v>0.807025462962963</v>
+        <v>0.6028356481481482</v>
       </c>
       <c r="E193" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="F193">
         <v>1</v>
@@ -5213,16 +5249,16 @@
         <v>38</v>
       </c>
       <c r="B194" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C194" s="1">
-        <v>44901</v>
+        <v>44873</v>
       </c>
       <c r="D194">
-        <v>0.1365393518518518</v>
+        <v>0.807025462962963</v>
       </c>
       <c r="E194" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -5230,22 +5266,22 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B195" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C195" s="1">
-        <v>44596</v>
+        <v>44901</v>
       </c>
       <c r="D195">
-        <v>0.2638078703703703</v>
+        <v>0.1365393518518518</v>
       </c>
       <c r="E195" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="F195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5253,19 +5289,19 @@
         <v>39</v>
       </c>
       <c r="B196" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C196" s="1">
-        <v>44623</v>
+        <v>44596</v>
       </c>
       <c r="D196">
-        <v>0.8809953703703703</v>
+        <v>0.2638078703703703</v>
       </c>
       <c r="E196" t="s">
-        <v>307</v>
+        <v>245</v>
       </c>
       <c r="F196">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5273,16 +5309,16 @@
         <v>39</v>
       </c>
       <c r="B197" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C197" s="1">
-        <v>44651</v>
+        <v>44623</v>
       </c>
       <c r="D197">
-        <v>0.1841319444444445</v>
+        <v>0.8809953703703703</v>
       </c>
       <c r="E197" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="F197">
         <v>3</v>
@@ -5293,19 +5329,19 @@
         <v>39</v>
       </c>
       <c r="B198" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C198" s="1">
-        <v>44678</v>
+        <v>44651</v>
       </c>
       <c r="D198">
-        <v>0.673888888888889</v>
+        <v>0.1841319444444445</v>
       </c>
       <c r="E198" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F198">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5313,19 +5349,19 @@
         <v>39</v>
       </c>
       <c r="B199" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C199" s="1">
-        <v>44705</v>
+        <v>44678</v>
       </c>
       <c r="D199">
-        <v>0.843298611111111</v>
+        <v>0.673888888888889</v>
       </c>
       <c r="E199" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5333,16 +5369,16 @@
         <v>39</v>
       </c>
       <c r="B200" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C200" s="1">
-        <v>44733</v>
+        <v>44705</v>
       </c>
       <c r="D200">
-        <v>0.2291203703703704</v>
+        <v>0.843298611111111</v>
       </c>
       <c r="E200" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -5353,16 +5389,16 @@
         <v>39</v>
       </c>
       <c r="B201" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C201" s="1">
-        <v>44760</v>
+        <v>44733</v>
       </c>
       <c r="D201">
-        <v>0.523275462962963</v>
+        <v>0.2291203703703704</v>
       </c>
       <c r="E201" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -5373,16 +5409,16 @@
         <v>39</v>
       </c>
       <c r="B202" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C202" s="1">
-        <v>44787</v>
+        <v>44760</v>
       </c>
       <c r="D202">
-        <v>0.7768055555555556</v>
+        <v>0.523275462962963</v>
       </c>
       <c r="E202" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -5393,16 +5429,16 @@
         <v>39</v>
       </c>
       <c r="B203" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C203" s="1">
-        <v>44815</v>
+        <v>44787</v>
       </c>
       <c r="D203">
-        <v>0.2900231481481482</v>
+        <v>0.7768055555555556</v>
       </c>
       <c r="E203" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -5413,16 +5449,16 @@
         <v>39</v>
       </c>
       <c r="B204" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C204" s="1">
-        <v>44842</v>
+        <v>44815</v>
       </c>
       <c r="D204">
-        <v>0.5008449074074074</v>
+        <v>0.2900231481481482</v>
       </c>
       <c r="E204" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -5433,16 +5469,16 @@
         <v>39</v>
       </c>
       <c r="B205" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C205" s="1">
-        <v>44869</v>
+        <v>44842</v>
       </c>
       <c r="D205">
-        <v>0.8622337962962963</v>
+        <v>0.5008449074074074</v>
       </c>
       <c r="E205" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -5453,16 +5489,16 @@
         <v>39</v>
       </c>
       <c r="B206" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C206" s="1">
-        <v>44897</v>
+        <v>44869</v>
       </c>
       <c r="D206">
-        <v>0.0705324074074074</v>
+        <v>0.8622337962962963</v>
       </c>
       <c r="E206" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -5473,16 +5509,16 @@
         <v>39</v>
       </c>
       <c r="B207" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C207" s="1">
-        <v>44924</v>
+        <v>44897</v>
       </c>
       <c r="D207">
-        <v>0.2408796296296296</v>
+        <v>0.0705324074074074</v>
       </c>
       <c r="E207" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -5490,22 +5526,22 @@
     </row>
     <row r="208" spans="1:6">
       <c r="A208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B208" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C208" s="1">
-        <v>44831</v>
+        <v>44924</v>
       </c>
       <c r="D208">
-        <v>0.3239930555555555</v>
+        <v>0.2408796296296296</v>
       </c>
       <c r="E208" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="F208">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5513,16 +5549,16 @@
         <v>40</v>
       </c>
       <c r="B209" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C209" s="1">
-        <v>44886</v>
+        <v>44831</v>
       </c>
       <c r="D209">
-        <v>0.4966087962962962</v>
+        <v>0.3239930555555555</v>
       </c>
       <c r="E209" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="F209">
         <v>3</v>
@@ -5533,16 +5569,16 @@
         <v>40</v>
       </c>
       <c r="B210" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C210" s="1">
-        <v>44924</v>
+        <v>44886</v>
       </c>
       <c r="D210">
-        <v>0.6420833333333333</v>
+        <v>0.4966087962962962</v>
       </c>
       <c r="E210" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="F210">
         <v>3</v>
@@ -5550,19 +5586,19 @@
     </row>
     <row r="211" spans="1:6">
       <c r="A211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B211" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C211" s="1">
-        <v>44641</v>
+        <v>44924</v>
       </c>
       <c r="D211">
-        <v>0.6078009259259259</v>
+        <v>0.6420833333333333</v>
       </c>
       <c r="E211" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="F211">
         <v>3</v>
@@ -5570,19 +5606,19 @@
     </row>
     <row r="212" spans="1:6">
       <c r="A212" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B212" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C212" s="1">
-        <v>44574</v>
+        <v>44641</v>
       </c>
       <c r="D212">
-        <v>0.4537615740740741</v>
+        <v>0.6078009259259259</v>
       </c>
       <c r="E212" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="F212">
         <v>3</v>
@@ -5593,16 +5629,16 @@
         <v>42</v>
       </c>
       <c r="B213" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C213" s="1">
-        <v>44622</v>
+        <v>44574</v>
       </c>
       <c r="D213">
-        <v>0.984826388888889</v>
+        <v>0.4537615740740741</v>
       </c>
       <c r="E213" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="F213">
         <v>3</v>
@@ -5610,19 +5646,19 @@
     </row>
     <row r="214" spans="1:6">
       <c r="A214" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B214" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C214" s="1">
-        <v>44669</v>
+        <v>44622</v>
       </c>
       <c r="D214">
-        <v>0.4241666666666666</v>
+        <v>0.984826388888889</v>
       </c>
       <c r="E214" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="F214">
         <v>3</v>
@@ -5630,19 +5666,19 @@
     </row>
     <row r="215" spans="1:6">
       <c r="A215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B215" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C215" s="1">
-        <v>44644</v>
+        <v>44669</v>
       </c>
       <c r="D215">
-        <v>0.0867013888888889</v>
+        <v>0.4241666666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F215">
         <v>3</v>
@@ -5650,99 +5686,99 @@
     </row>
     <row r="216" spans="1:6">
       <c r="A216" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B216" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C216" s="1">
-        <v>44636</v>
+        <v>44644</v>
       </c>
       <c r="D216">
-        <v>0.4752314814814815</v>
+        <v>0.0867013888888889</v>
       </c>
       <c r="E216" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F216">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:6">
       <c r="A217" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B217" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C217" s="1">
-        <v>44682</v>
+        <v>44636</v>
       </c>
       <c r="D217">
-        <v>0.2044907407407408</v>
+        <v>0.4752314814814815</v>
       </c>
       <c r="E217" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6">
       <c r="A218" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B218" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C218" s="1">
-        <v>44649</v>
+        <v>44682</v>
       </c>
       <c r="D218">
-        <v>0.3612847222222222</v>
+        <v>0.2044907407407408</v>
       </c>
       <c r="E218" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="F218">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:6">
       <c r="A219" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B219" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C219" s="1">
-        <v>44724</v>
+        <v>44649</v>
       </c>
       <c r="D219">
-        <v>0.314537037037037</v>
+        <v>0.3612847222222222</v>
       </c>
       <c r="E219" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="F219">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:6">
       <c r="A220" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B220" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C220" s="1">
-        <v>44679</v>
+        <v>44724</v>
       </c>
       <c r="D220">
-        <v>0.1311226851851852</v>
+        <v>0.314537037037037</v>
       </c>
       <c r="E220" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="F220">
         <v>3</v>
@@ -5750,39 +5786,39 @@
     </row>
     <row r="221" spans="1:6">
       <c r="A221" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B221" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C221" s="1">
-        <v>44710</v>
+        <v>44679</v>
       </c>
       <c r="D221">
-        <v>0.7653703703703704</v>
+        <v>0.1311226851851852</v>
       </c>
       <c r="E221" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:6">
       <c r="A222" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B222" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C222" s="1">
-        <v>44656</v>
+        <v>44710</v>
       </c>
       <c r="D222">
-        <v>0.4065046296296296</v>
+        <v>0.7653703703703704</v>
       </c>
       <c r="E222" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -5790,39 +5826,39 @@
     </row>
     <row r="223" spans="1:6">
       <c r="A223" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B223" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C223" s="1">
-        <v>44775</v>
+        <v>44656</v>
       </c>
       <c r="D223">
-        <v>0.3632291666666667</v>
+        <v>0.4065046296296296</v>
       </c>
       <c r="E223" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="F223">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:6">
       <c r="A224" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B224" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C224" s="1">
-        <v>44699</v>
+        <v>44775</v>
       </c>
       <c r="D224">
-        <v>0.6026967592592593</v>
+        <v>0.3632291666666667</v>
       </c>
       <c r="E224" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="F224">
         <v>3</v>
@@ -5830,19 +5866,19 @@
     </row>
     <row r="225" spans="1:6">
       <c r="A225" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B225" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C225" s="1">
-        <v>44663</v>
+        <v>44699</v>
       </c>
       <c r="D225">
-        <v>0.9526851851851852</v>
+        <v>0.6026967592592593</v>
       </c>
       <c r="E225" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="F225">
         <v>3</v>
@@ -5850,22 +5886,22 @@
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B226" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C226" s="1">
-        <v>44586</v>
+        <v>44663</v>
       </c>
       <c r="D226">
-        <v>0.1543981481481481</v>
+        <v>0.9526851851851852</v>
       </c>
       <c r="E226" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5873,16 +5909,16 @@
         <v>55</v>
       </c>
       <c r="B227" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C227" s="1">
-        <v>44613</v>
+        <v>44586</v>
       </c>
       <c r="D227">
-        <v>0.3776620370370371</v>
+        <v>0.1543981481481481</v>
       </c>
       <c r="E227" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -5893,16 +5929,16 @@
         <v>55</v>
       </c>
       <c r="B228" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C228" s="1">
-        <v>44640</v>
+        <v>44613</v>
       </c>
       <c r="D228">
-        <v>0.5700462962962963</v>
+        <v>0.3776620370370371</v>
       </c>
       <c r="E228" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -5913,16 +5949,16 @@
         <v>55</v>
       </c>
       <c r="B229" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C229" s="1">
-        <v>44668</v>
+        <v>44640</v>
       </c>
       <c r="D229">
-        <v>0.04663194444444444</v>
+        <v>0.5700462962962963</v>
       </c>
       <c r="E229" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -5933,16 +5969,16 @@
         <v>55</v>
       </c>
       <c r="B230" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C230" s="1">
-        <v>44695</v>
+        <v>44668</v>
       </c>
       <c r="D230">
-        <v>0.3784027777777778</v>
+        <v>0.04663194444444444</v>
       </c>
       <c r="E230" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -5953,16 +5989,16 @@
         <v>55</v>
       </c>
       <c r="B231" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C231" s="1">
-        <v>44722</v>
+        <v>44695</v>
       </c>
       <c r="D231">
-        <v>0.8872337962962963</v>
+        <v>0.3784027777777778</v>
       </c>
       <c r="E231" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -5973,16 +6009,16 @@
         <v>55</v>
       </c>
       <c r="B232" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C232" s="1">
-        <v>44750</v>
+        <v>44722</v>
       </c>
       <c r="D232">
-        <v>0.1594097222222222</v>
+        <v>0.8872337962962963</v>
       </c>
       <c r="E232" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -5993,16 +6029,16 @@
         <v>55</v>
       </c>
       <c r="B233" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C233" s="1">
-        <v>44777</v>
+        <v>44750</v>
       </c>
       <c r="D233">
-        <v>0.3487615740740741</v>
+        <v>0.1594097222222222</v>
       </c>
       <c r="E233" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -6013,19 +6049,19 @@
         <v>55</v>
       </c>
       <c r="B234" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C234" s="1">
-        <v>44804</v>
+        <v>44777</v>
       </c>
       <c r="D234">
-        <v>0.7112037037037037</v>
+        <v>0.3487615740740741</v>
       </c>
       <c r="E234" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="F234">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6033,19 +6069,19 @@
         <v>55</v>
       </c>
       <c r="B235" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C235" s="1">
-        <v>44831</v>
+        <v>44804</v>
       </c>
       <c r="D235">
-        <v>0.915324074074074</v>
+        <v>0.7112037037037037</v>
       </c>
       <c r="E235" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="F235">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6053,16 +6089,16 @@
         <v>55</v>
       </c>
       <c r="B236" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C236" s="1">
-        <v>44859</v>
+        <v>44831</v>
       </c>
       <c r="D236">
-        <v>0.181087962962963</v>
+        <v>0.915324074074074</v>
       </c>
       <c r="E236" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="F236">
         <v>3</v>
@@ -6073,19 +6109,19 @@
         <v>55</v>
       </c>
       <c r="B237" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C237" s="1">
-        <v>44886</v>
+        <v>44859</v>
       </c>
       <c r="D237">
-        <v>0.6936574074074073</v>
+        <v>0.181087962962963</v>
       </c>
       <c r="E237" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6093,36 +6129,36 @@
         <v>55</v>
       </c>
       <c r="B238" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C238" s="1">
-        <v>44914</v>
+        <v>44886</v>
       </c>
       <c r="D238">
-        <v>0.01025462962962963</v>
+        <v>0.6936574074074073</v>
       </c>
       <c r="E238" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:6">
       <c r="A239" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B239" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C239" s="1">
-        <v>44581</v>
+        <v>44914</v>
       </c>
       <c r="D239">
-        <v>0.8059027777777777</v>
+        <v>0.01025462962962963</v>
       </c>
       <c r="E239" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -6133,16 +6169,16 @@
         <v>56</v>
       </c>
       <c r="B240" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C240" s="1">
-        <v>44609</v>
+        <v>44581</v>
       </c>
       <c r="D240">
-        <v>0.2912384259259259</v>
+        <v>0.8059027777777777</v>
       </c>
       <c r="E240" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -6153,16 +6189,16 @@
         <v>56</v>
       </c>
       <c r="B241" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C241" s="1">
-        <v>44636</v>
+        <v>44609</v>
       </c>
       <c r="D241">
-        <v>0.4878703703703703</v>
+        <v>0.2912384259259259</v>
       </c>
       <c r="E241" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -6173,16 +6209,16 @@
         <v>56</v>
       </c>
       <c r="B242" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C242" s="1">
-        <v>44664</v>
+        <v>44636</v>
       </c>
       <c r="D242">
-        <v>0.0537037037037037</v>
+        <v>0.4878703703703703</v>
       </c>
       <c r="E242" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -6193,16 +6229,16 @@
         <v>56</v>
       </c>
       <c r="B243" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C243" s="1">
-        <v>44691</v>
+        <v>44664</v>
       </c>
       <c r="D243">
-        <v>0.2711805555555556</v>
+        <v>0.0537037037037037</v>
       </c>
       <c r="E243" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F243">
         <v>1</v>
@@ -6213,16 +6249,16 @@
         <v>56</v>
       </c>
       <c r="B244" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C244" s="1">
-        <v>44718</v>
+        <v>44691</v>
       </c>
       <c r="D244">
-        <v>0.4968055555555555</v>
+        <v>0.2711805555555556</v>
       </c>
       <c r="E244" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -6233,19 +6269,19 @@
         <v>56</v>
       </c>
       <c r="B245" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C245" s="1">
-        <v>44745</v>
+        <v>44718</v>
       </c>
       <c r="D245">
-        <v>0.9444444444444445</v>
+        <v>0.4968055555555555</v>
       </c>
       <c r="E245" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F245">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6253,19 +6289,19 @@
         <v>56</v>
       </c>
       <c r="B246" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C246" s="1">
-        <v>44773</v>
+        <v>44745</v>
       </c>
       <c r="D246">
-        <v>0.06581018518518518</v>
+        <v>0.9444444444444445</v>
       </c>
       <c r="E246" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="F246">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6273,16 +6309,16 @@
         <v>56</v>
       </c>
       <c r="B247" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C247" s="1">
-        <v>44800</v>
+        <v>44773</v>
       </c>
       <c r="D247">
-        <v>0.2495833333333334</v>
+        <v>0.06581018518518518</v>
       </c>
       <c r="E247" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="F247">
         <v>3</v>
@@ -6293,16 +6329,16 @@
         <v>56</v>
       </c>
       <c r="B248" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C248" s="1">
-        <v>44827</v>
+        <v>44800</v>
       </c>
       <c r="D248">
-        <v>0.741550925925926</v>
+        <v>0.2495833333333334</v>
       </c>
       <c r="E248" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="F248">
         <v>3</v>
@@ -6313,19 +6349,19 @@
         <v>56</v>
       </c>
       <c r="B249" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C249" s="1">
-        <v>44854</v>
+        <v>44827</v>
       </c>
       <c r="D249">
-        <v>0.9402662037037038</v>
+        <v>0.741550925925926</v>
       </c>
       <c r="E249" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="F249">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6333,19 +6369,19 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C250" s="1">
-        <v>44882</v>
+        <v>44854</v>
       </c>
       <c r="D250">
-        <v>0.5034027777777778</v>
+        <v>0.9402662037037038</v>
       </c>
       <c r="E250" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6353,16 +6389,16 @@
         <v>56</v>
       </c>
       <c r="B251" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C251" s="1">
-        <v>44909</v>
+        <v>44882</v>
       </c>
       <c r="D251">
-        <v>0.6818750000000001</v>
+        <v>0.5034027777777778</v>
       </c>
       <c r="E251" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="F251">
         <v>1</v>
@@ -6370,22 +6406,22 @@
     </row>
     <row r="252" spans="1:6">
       <c r="A252" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B252" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C252" s="1">
-        <v>44589</v>
+        <v>44909</v>
       </c>
       <c r="D252">
-        <v>0.3921990740740741</v>
+        <v>0.6818750000000001</v>
       </c>
       <c r="E252" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6393,19 +6429,19 @@
         <v>57</v>
       </c>
       <c r="B253" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C253" s="1">
-        <v>44616</v>
+        <v>44589</v>
       </c>
       <c r="D253">
-        <v>0.6461574074074073</v>
+        <v>0.3921990740740741</v>
       </c>
       <c r="E253" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6413,16 +6449,16 @@
         <v>57</v>
       </c>
       <c r="B254" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C254" s="1">
-        <v>44643</v>
+        <v>44616</v>
       </c>
       <c r="D254">
-        <v>0.8189467592592593</v>
+        <v>0.6461574074074073</v>
       </c>
       <c r="E254" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="F254">
         <v>1</v>
@@ -6433,16 +6469,16 @@
         <v>57</v>
       </c>
       <c r="B255" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C255" s="1">
-        <v>44671</v>
+        <v>44643</v>
       </c>
       <c r="D255">
-        <v>0.1535185185185185</v>
+        <v>0.8189467592592593</v>
       </c>
       <c r="E255" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -6453,16 +6489,16 @@
         <v>57</v>
       </c>
       <c r="B256" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C256" s="1">
-        <v>44698</v>
+        <v>44671</v>
       </c>
       <c r="D256">
-        <v>0.5161805555555555</v>
+        <v>0.1535185185185185</v>
       </c>
       <c r="E256" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -6473,16 +6509,16 @@
         <v>57</v>
       </c>
       <c r="B257" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C257" s="1">
-        <v>44725</v>
+        <v>44698</v>
       </c>
       <c r="D257">
-        <v>0.9725231481481481</v>
+        <v>0.5161805555555555</v>
       </c>
       <c r="E257" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -6493,16 +6529,16 @@
         <v>57</v>
       </c>
       <c r="B258" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C258" s="1">
-        <v>44753</v>
+        <v>44725</v>
       </c>
       <c r="D258">
-        <v>0.3871064814814815</v>
+        <v>0.9725231481481481</v>
       </c>
       <c r="E258" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -6513,16 +6549,16 @@
         <v>57</v>
       </c>
       <c r="B259" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C259" s="1">
-        <v>44780</v>
+        <v>44753</v>
       </c>
       <c r="D259">
-        <v>0.7484027777777778</v>
+        <v>0.3871064814814815</v>
       </c>
       <c r="E259" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="F259">
         <v>1</v>
@@ -6533,16 +6569,16 @@
         <v>57</v>
       </c>
       <c r="B260" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C260" s="1">
-        <v>44808</v>
+        <v>44780</v>
       </c>
       <c r="D260">
-        <v>0.05189814814814814</v>
+        <v>0.7484027777777778</v>
       </c>
       <c r="E260" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="F260">
         <v>1</v>
@@ -6553,16 +6589,16 @@
         <v>57</v>
       </c>
       <c r="B261" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C261" s="1">
-        <v>44835</v>
+        <v>44808</v>
       </c>
       <c r="D261">
-        <v>0.2204513888888889</v>
+        <v>0.05189814814814814</v>
       </c>
       <c r="E261" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="F261">
         <v>1</v>
@@ -6573,19 +6609,19 @@
         <v>57</v>
       </c>
       <c r="B262" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C262" s="1">
-        <v>44862</v>
+        <v>44835</v>
       </c>
       <c r="D262">
-        <v>0.4862847222222222</v>
+        <v>0.2204513888888889</v>
       </c>
       <c r="E262" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="F262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -6593,19 +6629,19 @@
         <v>57</v>
       </c>
       <c r="B263" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C263" s="1">
-        <v>44889</v>
+        <v>44862</v>
       </c>
       <c r="D263">
-        <v>0.904363425925926</v>
+        <v>0.4862847222222222</v>
       </c>
       <c r="E263" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="F263">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -6613,16 +6649,16 @@
         <v>57</v>
       </c>
       <c r="B264" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C264" s="1">
-        <v>44917</v>
+        <v>44889</v>
       </c>
       <c r="D264">
-        <v>0.3063773148148148</v>
+        <v>0.904363425925926</v>
       </c>
       <c r="E264" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="F264">
         <v>3</v>
@@ -6630,22 +6666,22 @@
     </row>
     <row r="265" spans="1:6">
       <c r="A265" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B265" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C265" s="1">
-        <v>44575</v>
+        <v>44917</v>
       </c>
       <c r="D265">
-        <v>0.351886574074074</v>
+        <v>0.3063773148148148</v>
       </c>
       <c r="E265" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6653,16 +6689,16 @@
         <v>58</v>
       </c>
       <c r="B266" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C266" s="1">
-        <v>44602</v>
+        <v>44575</v>
       </c>
       <c r="D266">
-        <v>0.4860416666666667</v>
+        <v>0.351886574074074</v>
       </c>
       <c r="E266" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -6673,16 +6709,16 @@
         <v>58</v>
       </c>
       <c r="B267" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C267" s="1">
-        <v>44630</v>
+        <v>44602</v>
       </c>
       <c r="D267">
-        <v>0.07087962962962963</v>
+        <v>0.4860416666666667</v>
       </c>
       <c r="E267" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -6693,19 +6729,19 @@
         <v>58</v>
       </c>
       <c r="B268" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C268" s="1">
-        <v>44657</v>
+        <v>44630</v>
       </c>
       <c r="D268">
-        <v>0.2390740740740741</v>
+        <v>0.07087962962962963</v>
       </c>
       <c r="E268" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="F268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -6713,19 +6749,19 @@
         <v>58</v>
       </c>
       <c r="B269" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C269" s="1">
-        <v>44684</v>
+        <v>44657</v>
       </c>
       <c r="D269">
-        <v>0.3910879629629629</v>
+        <v>0.2390740740740741</v>
       </c>
       <c r="E269" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="F269">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -6733,16 +6769,16 @@
         <v>58</v>
       </c>
       <c r="B270" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C270" s="1">
-        <v>44711</v>
+        <v>44684</v>
       </c>
       <c r="D270">
-        <v>0.951238425925926</v>
+        <v>0.3910879629629629</v>
       </c>
       <c r="E270" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="F270">
         <v>3</v>
@@ -6753,16 +6789,16 @@
         <v>58</v>
       </c>
       <c r="B271" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C271" s="1">
-        <v>44739</v>
+        <v>44711</v>
       </c>
       <c r="D271">
-        <v>0.05268518518518519</v>
+        <v>0.951238425925926</v>
       </c>
       <c r="E271" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="F271">
         <v>3</v>
@@ -6773,19 +6809,19 @@
         <v>58</v>
       </c>
       <c r="B272" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C272" s="1">
-        <v>44766</v>
+        <v>44739</v>
       </c>
       <c r="D272">
-        <v>0.1636226851851852</v>
+        <v>0.05268518518518519</v>
       </c>
       <c r="E272" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="F272">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -6793,19 +6829,19 @@
         <v>58</v>
       </c>
       <c r="B273" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C273" s="1">
-        <v>44793</v>
+        <v>44766</v>
       </c>
       <c r="D273">
-        <v>0.7305439814814815</v>
+        <v>0.1636226851851852</v>
       </c>
       <c r="E273" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6813,16 +6849,16 @@
         <v>58</v>
       </c>
       <c r="B274" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C274" s="1">
-        <v>44820</v>
+        <v>44793</v>
       </c>
       <c r="D274">
-        <v>0.8701967592592593</v>
+        <v>0.7305439814814815</v>
       </c>
       <c r="E274" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="F274">
         <v>1</v>
@@ -6833,16 +6869,16 @@
         <v>58</v>
       </c>
       <c r="B275" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C275" s="1">
-        <v>44848</v>
+        <v>44820</v>
       </c>
       <c r="D275">
-        <v>0.4810648148148148</v>
+        <v>0.8701967592592593</v>
       </c>
       <c r="E275" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="F275">
         <v>1</v>
@@ -6853,16 +6889,16 @@
         <v>58</v>
       </c>
       <c r="B276" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C276" s="1">
-        <v>44875</v>
+        <v>44848</v>
       </c>
       <c r="D276">
-        <v>0.6457175925925925</v>
+        <v>0.4810648148148148</v>
       </c>
       <c r="E276" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F276">
         <v>1</v>
@@ -6873,16 +6909,16 @@
         <v>58</v>
       </c>
       <c r="B277" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C277" s="1">
-        <v>44902</v>
+        <v>44875</v>
       </c>
       <c r="D277">
-        <v>0.7843634259259259</v>
+        <v>0.6457175925925925</v>
       </c>
       <c r="E277" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="F277">
         <v>1</v>
@@ -6890,19 +6926,19 @@
     </row>
     <row r="278" spans="1:6">
       <c r="A278" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B278" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C278" s="1">
-        <v>44578</v>
+        <v>44902</v>
       </c>
       <c r="D278">
-        <v>0.9626504629629631</v>
+        <v>0.7843634259259259</v>
       </c>
       <c r="E278" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="F278">
         <v>1</v>
@@ -6913,16 +6949,16 @@
         <v>59</v>
       </c>
       <c r="B279" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C279" s="1">
-        <v>44606</v>
+        <v>44578</v>
       </c>
       <c r="D279">
-        <v>0.3091550925925926</v>
+        <v>0.9626504629629631</v>
       </c>
       <c r="E279" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="F279">
         <v>1</v>
@@ -6933,16 +6969,16 @@
         <v>59</v>
       </c>
       <c r="B280" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C280" s="1">
-        <v>44633</v>
+        <v>44606</v>
       </c>
       <c r="D280">
-        <v>0.5901967592592593</v>
+        <v>0.3091550925925926</v>
       </c>
       <c r="E280" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="F280">
         <v>1</v>
@@ -6953,16 +6989,16 @@
         <v>59</v>
       </c>
       <c r="B281" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C281" s="1">
-        <v>44660</v>
+        <v>44633</v>
       </c>
       <c r="D281">
-        <v>0.9875810185185184</v>
+        <v>0.5901967592592593</v>
       </c>
       <c r="E281" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="F281">
         <v>1</v>
@@ -6973,16 +7009,16 @@
         <v>59</v>
       </c>
       <c r="B282" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C282" s="1">
-        <v>44688</v>
+        <v>44660</v>
       </c>
       <c r="D282">
-        <v>0.2769212962962963</v>
+        <v>0.9875810185185184</v>
       </c>
       <c r="E282" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="F282">
         <v>1</v>
@@ -6993,19 +7029,19 @@
         <v>59</v>
       </c>
       <c r="B283" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C283" s="1">
-        <v>44715</v>
+        <v>44688</v>
       </c>
       <c r="D283">
-        <v>0.5489004629629629</v>
+        <v>0.2769212962962963</v>
       </c>
       <c r="E283" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="F283">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7013,19 +7049,19 @@
         <v>59</v>
       </c>
       <c r="B284" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C284" s="1">
-        <v>44742</v>
+        <v>44715</v>
       </c>
       <c r="D284">
-        <v>0.8533101851851851</v>
+        <v>0.5489004629629629</v>
       </c>
       <c r="E284" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="F284">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7033,16 +7069,16 @@
         <v>59</v>
       </c>
       <c r="B285" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C285" s="1">
-        <v>44770</v>
+        <v>44742</v>
       </c>
       <c r="D285">
-        <v>0.05861111111111111</v>
+        <v>0.8533101851851851</v>
       </c>
       <c r="E285" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="F285">
         <v>3</v>
@@ -7053,19 +7089,19 @@
         <v>59</v>
       </c>
       <c r="B286" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C286" s="1">
-        <v>44797</v>
+        <v>44770</v>
       </c>
       <c r="D286">
-        <v>0.3209837962962963</v>
+        <v>0.05861111111111111</v>
       </c>
       <c r="E286" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="F286">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7073,19 +7109,19 @@
         <v>59</v>
       </c>
       <c r="B287" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C287" s="1">
-        <v>44824</v>
+        <v>44797</v>
       </c>
       <c r="D287">
-        <v>0.6864699074074073</v>
+        <v>0.3209837962962963</v>
       </c>
       <c r="E287" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="F287">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7093,16 +7129,16 @@
         <v>59</v>
       </c>
       <c r="B288" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C288" s="1">
-        <v>44851</v>
+        <v>44824</v>
       </c>
       <c r="D288">
-        <v>0.9523611111111112</v>
+        <v>0.6864699074074073</v>
       </c>
       <c r="E288" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="F288">
         <v>1</v>
@@ -7113,16 +7149,16 @@
         <v>59</v>
       </c>
       <c r="B289" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C289" s="1">
-        <v>44879</v>
+        <v>44851</v>
       </c>
       <c r="D289">
-        <v>0.3402662037037037</v>
+        <v>0.9523611111111112</v>
       </c>
       <c r="E289" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="F289">
         <v>1</v>
@@ -7133,16 +7169,16 @@
         <v>59</v>
       </c>
       <c r="B290" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C290" s="1">
-        <v>44906</v>
+        <v>44879</v>
       </c>
       <c r="D290">
-        <v>0.6305555555555555</v>
+        <v>0.3402662037037037</v>
       </c>
       <c r="E290" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="F290">
         <v>1</v>
@@ -7150,16 +7186,19 @@
     </row>
     <row r="291" spans="1:6">
       <c r="A291" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B291" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C291" s="1">
-        <v>44577</v>
+        <v>44906</v>
       </c>
       <c r="D291">
-        <v>0.2949074074074074</v>
+        <v>0.6305555555555555</v>
+      </c>
+      <c r="E291" t="s">
+        <v>411</v>
       </c>
       <c r="F291">
         <v>1</v>
@@ -7167,16 +7206,16 @@
     </row>
     <row r="292" spans="1:6">
       <c r="A292" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B292" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C292" s="1">
-        <v>44747</v>
+        <v>44577</v>
       </c>
       <c r="D292">
-        <v>0.7992939814814816</v>
+        <v>0.2949074074074074</v>
       </c>
       <c r="F292">
         <v>1</v>
@@ -7184,16 +7223,16 @@
     </row>
     <row r="293" spans="1:6">
       <c r="A293" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B293" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C293" s="1">
-        <v>44720</v>
+        <v>44747</v>
       </c>
       <c r="D293">
-        <v>0.2352546296296296</v>
+        <v>0.7992939814814816</v>
       </c>
       <c r="F293">
         <v>1</v>
@@ -7201,16 +7240,16 @@
     </row>
     <row r="294" spans="1:6">
       <c r="A294" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B294" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C294" s="1">
-        <v>44925</v>
+        <v>44720</v>
       </c>
       <c r="D294">
-        <v>0.7426736111111111</v>
+        <v>0.2352546296296296</v>
       </c>
       <c r="F294">
         <v>1</v>
@@ -7218,16 +7257,16 @@
     </row>
     <row r="295" spans="1:6">
       <c r="A295" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B295" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C295" s="1">
-        <v>44926</v>
-      </c>
-      <c r="E295" t="s">
-        <v>400</v>
+        <v>44925</v>
+      </c>
+      <c r="D295">
+        <v>0.7426736111111111</v>
       </c>
       <c r="F295">
         <v>1</v>
@@ -7235,16 +7274,16 @@
     </row>
     <row r="296" spans="1:6">
       <c r="A296" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B296" t="s">
-        <v>160</v>
-      </c>
-      <c r="C296" s="1">
-        <v>44926</v>
+        <v>162</v>
+      </c>
+      <c r="C296" t="s">
+        <v>197</v>
       </c>
       <c r="E296" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F296">
         <v>1</v>
@@ -7252,16 +7291,16 @@
     </row>
     <row r="297" spans="1:6">
       <c r="A297" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B297" t="s">
-        <v>161</v>
-      </c>
-      <c r="C297" s="1">
-        <v>44926</v>
+        <v>163</v>
+      </c>
+      <c r="C297" t="s">
+        <v>198</v>
       </c>
       <c r="E297" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="F297">
         <v>1</v>
@@ -7269,19 +7308,19 @@
     </row>
     <row r="298" spans="1:6">
       <c r="A298" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B298" t="s">
-        <v>162</v>
-      </c>
-      <c r="C298" s="1">
-        <v>44565</v>
-      </c>
-      <c r="D298">
-        <v>0.3897337962962963</v>
+        <v>164</v>
+      </c>
+      <c r="C298" t="s">
+        <v>199</v>
+      </c>
+      <c r="E298" t="s">
+        <v>412</v>
       </c>
       <c r="F298">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7289,64 +7328,64 @@
         <v>67</v>
       </c>
       <c r="B299" t="s">
-        <v>162</v>
-      </c>
-      <c r="C299" s="1">
-        <v>44592</v>
-      </c>
-      <c r="D299">
-        <v>0.3460763888888889</v>
+        <v>165</v>
+      </c>
+      <c r="C299" t="s">
+        <v>200</v>
+      </c>
+      <c r="E299" t="s">
+        <v>412</v>
       </c>
       <c r="F299">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:6">
       <c r="A300" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B300" t="s">
-        <v>162</v>
-      </c>
-      <c r="C300" s="1">
-        <v>44621</v>
-      </c>
-      <c r="D300">
-        <v>0.170462962962963</v>
+        <v>166</v>
+      </c>
+      <c r="C300" t="s">
+        <v>201</v>
+      </c>
+      <c r="E300" t="s">
+        <v>412</v>
       </c>
       <c r="F300">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:6">
       <c r="A301" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B301" t="s">
-        <v>162</v>
-      </c>
-      <c r="C301" s="1">
-        <v>44652</v>
-      </c>
-      <c r="D301">
-        <v>0.3506365740740741</v>
+        <v>167</v>
+      </c>
+      <c r="C301" t="s">
+        <v>202</v>
+      </c>
+      <c r="E301" t="s">
+        <v>412</v>
       </c>
       <c r="F301">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:6">
       <c r="A302" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B302" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C302" s="1">
-        <v>44683</v>
+        <v>44565</v>
       </c>
       <c r="D302">
-        <v>0.9290740740740741</v>
+        <v>0.3897337962962963</v>
       </c>
       <c r="F302">
         <v>3</v>
@@ -7354,16 +7393,16 @@
     </row>
     <row r="303" spans="1:6">
       <c r="A303" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B303" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C303" s="1">
-        <v>44710</v>
+        <v>44592</v>
       </c>
       <c r="D303">
-        <v>0.8699074074074075</v>
+        <v>0.3460763888888889</v>
       </c>
       <c r="F303">
         <v>3</v>
@@ -7371,16 +7410,16 @@
     </row>
     <row r="304" spans="1:6">
       <c r="A304" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B304" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C304" s="1">
-        <v>44739</v>
+        <v>44621</v>
       </c>
       <c r="D304">
-        <v>0.679525462962963</v>
+        <v>0.170462962962963</v>
       </c>
       <c r="F304">
         <v>3</v>
@@ -7388,16 +7427,16 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B305" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C305" s="1">
-        <v>44772</v>
+        <v>44652</v>
       </c>
       <c r="D305">
-        <v>0.2135069444444444</v>
+        <v>0.3506365740740741</v>
       </c>
       <c r="F305">
         <v>3</v>
@@ -7405,16 +7444,16 @@
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B306" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C306" s="1">
-        <v>44802</v>
+        <v>44683</v>
       </c>
       <c r="D306">
-        <v>0.7857523148148148</v>
+        <v>0.9290740740740741</v>
       </c>
       <c r="F306">
         <v>3</v>
@@ -7422,16 +7461,16 @@
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B307" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C307" s="1">
-        <v>44829</v>
+        <v>44710</v>
       </c>
       <c r="D307">
-        <v>0.6766666666666667</v>
+        <v>0.8699074074074075</v>
       </c>
       <c r="F307">
         <v>3</v>
@@ -7439,16 +7478,16 @@
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B308" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C308" s="1">
-        <v>44858</v>
+        <v>44739</v>
       </c>
       <c r="D308">
-        <v>0.9887037037037035</v>
+        <v>0.679525462962963</v>
       </c>
       <c r="F308">
         <v>3</v>
@@ -7456,16 +7495,16 @@
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B309" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C309" s="1">
-        <v>44889</v>
+        <v>44772</v>
       </c>
       <c r="D309">
-        <v>0.9606018518518519</v>
+        <v>0.2135069444444444</v>
       </c>
       <c r="F309">
         <v>3</v>
@@ -7473,16 +7512,16 @@
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B310" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C310" s="1">
-        <v>44920</v>
+        <v>44802</v>
       </c>
       <c r="D310">
-        <v>0.104375</v>
+        <v>0.7857523148148148</v>
       </c>
       <c r="F310">
         <v>3</v>
@@ -7490,16 +7529,16 @@
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B311" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C311" s="1">
-        <v>44564</v>
+        <v>44829</v>
       </c>
       <c r="D311">
-        <v>0.6732638888888888</v>
+        <v>0.6766666666666667</v>
       </c>
       <c r="F311">
         <v>3</v>
@@ -7507,16 +7546,16 @@
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B312" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C312" s="1">
-        <v>44591</v>
+        <v>44858</v>
       </c>
       <c r="D312">
-        <v>0.409537037037037</v>
+        <v>0.9887037037037035</v>
       </c>
       <c r="F312">
         <v>3</v>
@@ -7524,84 +7563,84 @@
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B313" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C313" s="1">
-        <v>44619</v>
+        <v>44889</v>
       </c>
       <c r="D313">
-        <v>0.6030439814814815</v>
+        <v>0.9606018518518519</v>
       </c>
       <c r="F313">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B314" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C314" s="1">
-        <v>44648</v>
+        <v>44920</v>
       </c>
       <c r="D314">
-        <v>0.7424305555555555</v>
+        <v>0.104375</v>
       </c>
       <c r="F314">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B315" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C315" s="1">
-        <v>44678</v>
+        <v>44564</v>
       </c>
       <c r="D315">
-        <v>0.4101041666666667</v>
+        <v>0.6732638888888888</v>
       </c>
       <c r="F315">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B316" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C316" s="1">
-        <v>44708</v>
+        <v>44591</v>
       </c>
       <c r="D316">
-        <v>0.4522685185185185</v>
+        <v>0.409537037037037</v>
       </c>
       <c r="F316">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B317" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C317" s="1">
-        <v>44738</v>
+        <v>44619</v>
       </c>
       <c r="D317">
-        <v>0.6735763888888888</v>
+        <v>0.6030439814814815</v>
       </c>
       <c r="F317">
         <v>2</v>
@@ -7609,84 +7648,84 @@
     </row>
     <row r="318" spans="1:6">
       <c r="A318" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B318" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C318" s="1">
-        <v>44768</v>
+        <v>44648</v>
       </c>
       <c r="D318">
-        <v>0.9241666666666667</v>
+        <v>0.7424305555555555</v>
       </c>
       <c r="F318">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B319" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C319" s="1">
-        <v>44799</v>
+        <v>44678</v>
       </c>
       <c r="D319">
-        <v>0.2065625</v>
+        <v>0.4101041666666667</v>
       </c>
       <c r="F319">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B320" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C320" s="1">
-        <v>44829</v>
+        <v>44708</v>
       </c>
       <c r="D320">
-        <v>0.5474305555555555</v>
+        <v>0.4522685185185185</v>
       </c>
       <c r="F320">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:6">
       <c r="A321" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B321" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C321" s="1">
-        <v>44859</v>
+        <v>44738</v>
       </c>
       <c r="D321">
-        <v>0.8365740740740741</v>
+        <v>0.6735763888888888</v>
       </c>
       <c r="F321">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:6">
       <c r="A322" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B322" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C322" s="1">
-        <v>44889</v>
+        <v>44768</v>
       </c>
       <c r="D322">
-        <v>0.9178819444444444</v>
+        <v>0.9241666666666667</v>
       </c>
       <c r="F322">
         <v>3</v>
@@ -7694,16 +7733,16 @@
     </row>
     <row r="323" spans="1:6">
       <c r="A323" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B323" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="C323" s="1">
-        <v>44919</v>
+        <v>44799</v>
       </c>
       <c r="D323">
-        <v>0.8111689814814814</v>
+        <v>0.2065625</v>
       </c>
       <c r="F323">
         <v>3</v>
@@ -7711,16 +7750,16 @@
     </row>
     <row r="324" spans="1:6">
       <c r="A324" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B324" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C324" s="1">
-        <v>44562</v>
+        <v>44829</v>
       </c>
       <c r="D324">
-        <v>0.1755902777777778</v>
+        <v>0.5474305555555555</v>
       </c>
       <c r="F324">
         <v>3</v>
@@ -7728,152 +7767,152 @@
     </row>
     <row r="325" spans="1:6">
       <c r="A325" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B325" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C325" s="1">
-        <v>44590</v>
+        <v>44859</v>
       </c>
       <c r="D325">
-        <v>0.960625</v>
+        <v>0.8365740740740741</v>
       </c>
       <c r="F325">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:6">
       <c r="A326" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B326" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C326" s="1">
-        <v>44619</v>
+        <v>44889</v>
       </c>
       <c r="D326">
-        <v>0.7073263888888888</v>
+        <v>0.9178819444444444</v>
       </c>
       <c r="F326">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:6">
       <c r="A327" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B327" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C327" s="1">
-        <v>44648</v>
+        <v>44919</v>
       </c>
       <c r="D327">
-        <v>0.4534837962962963</v>
+        <v>0.8111689814814814</v>
       </c>
       <c r="F327">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:6">
       <c r="A328" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B328" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C328" s="1">
-        <v>44677</v>
+        <v>44562</v>
       </c>
       <c r="D328">
-        <v>0.2537152777777777</v>
+        <v>0.1755902777777778</v>
       </c>
       <c r="F328">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:6">
       <c r="A329" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B329" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C329" s="1">
-        <v>44706</v>
+        <v>44590</v>
       </c>
       <c r="D329">
-        <v>0.1412962962962963</v>
+        <v>0.960625</v>
       </c>
       <c r="F329">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:6">
       <c r="A330" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B330" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C330" s="1">
-        <v>44735</v>
+        <v>44619</v>
       </c>
       <c r="D330">
-        <v>0.09425925925925926</v>
+        <v>0.7073263888888888</v>
       </c>
       <c r="F330">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:6">
       <c r="A331" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B331" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C331" s="1">
-        <v>44764</v>
+        <v>44648</v>
       </c>
       <c r="D331">
-        <v>0.03225694444444444</v>
+        <v>0.4534837962962963</v>
       </c>
       <c r="F331">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:6">
       <c r="A332" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B332" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C332" s="1">
-        <v>44792</v>
+        <v>44677</v>
       </c>
       <c r="D332">
-        <v>0.8450694444444444</v>
+        <v>0.2537152777777777</v>
       </c>
       <c r="F332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:6">
       <c r="A333" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B333" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C333" s="1">
-        <v>44821</v>
+        <v>44706</v>
       </c>
       <c r="D333">
-        <v>0.404849537037037</v>
+        <v>0.1412962962962963</v>
       </c>
       <c r="F333">
         <v>1</v>
@@ -7881,16 +7920,16 @@
     </row>
     <row r="334" spans="1:6">
       <c r="A334" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B334" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C334" s="1">
-        <v>44849</v>
+        <v>44735</v>
       </c>
       <c r="D334">
-        <v>0.5213541666666667</v>
+        <v>0.09425925925925926</v>
       </c>
       <c r="F334">
         <v>1</v>
@@ -7898,16 +7937,16 @@
     </row>
     <row r="335" spans="1:6">
       <c r="A335" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B335" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C335" s="1">
-        <v>44876</v>
+        <v>44764</v>
       </c>
       <c r="D335">
-        <v>0.9069791666666666</v>
+        <v>0.03225694444444444</v>
       </c>
       <c r="F335">
         <v>1</v>
@@ -7915,16 +7954,16 @@
     </row>
     <row r="336" spans="1:6">
       <c r="A336" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B336" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C336" s="1">
-        <v>44903</v>
+        <v>44792</v>
       </c>
       <c r="D336">
-        <v>0.5174421296296295</v>
+        <v>0.8450694444444444</v>
       </c>
       <c r="F336">
         <v>1</v>
@@ -7932,84 +7971,84 @@
     </row>
     <row r="337" spans="1:6">
       <c r="A337" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B337" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C337" s="1">
-        <v>44567</v>
+        <v>44821</v>
       </c>
       <c r="D337">
-        <v>0.3410648148148148</v>
+        <v>0.404849537037037</v>
       </c>
       <c r="F337">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:6">
       <c r="A338" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B338" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C338" s="1">
-        <v>44595</v>
+        <v>44849</v>
       </c>
       <c r="D338">
-        <v>0.2150694444444445</v>
+        <v>0.5213541666666667</v>
       </c>
       <c r="F338">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:6">
       <c r="A339" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B339" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C339" s="1">
-        <v>44623</v>
+        <v>44876</v>
       </c>
       <c r="D339">
-        <v>0.1075462962962963</v>
+        <v>0.9069791666666666</v>
       </c>
       <c r="F339">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:6">
       <c r="A340" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B340" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C340" s="1">
-        <v>44650</v>
+        <v>44903</v>
       </c>
       <c r="D340">
-        <v>0.9417708333333334</v>
+        <v>0.5174421296296295</v>
       </c>
       <c r="F340">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:6">
       <c r="A341" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B341" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C341" s="1">
-        <v>44678</v>
+        <v>44567</v>
       </c>
       <c r="D341">
-        <v>0.6844675925925926</v>
+        <v>0.3410648148148148</v>
       </c>
       <c r="F341">
         <v>2</v>
@@ -8017,84 +8056,84 @@
     </row>
     <row r="342" spans="1:6">
       <c r="A342" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B342" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C342" s="1">
-        <v>44706</v>
+        <v>44595</v>
       </c>
       <c r="D342">
-        <v>0.334675925925926</v>
+        <v>0.2150694444444445</v>
       </c>
       <c r="F342">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="343" spans="1:6">
       <c r="A343" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B343" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C343" s="1">
-        <v>44733</v>
+        <v>44623</v>
       </c>
       <c r="D343">
-        <v>0.8997337962962962</v>
+        <v>0.1075462962962963</v>
       </c>
       <c r="F343">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:6">
       <c r="A344" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B344" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C344" s="1">
-        <v>44761</v>
+        <v>44650</v>
       </c>
       <c r="D344">
-        <v>0.3745949074074074</v>
+        <v>0.9417708333333334</v>
       </c>
       <c r="F344">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="345" spans="1:6">
       <c r="A345" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B345" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C345" s="1">
-        <v>44788</v>
+        <v>44678</v>
       </c>
       <c r="D345">
-        <v>0.7376273148148148</v>
+        <v>0.6844675925925926</v>
       </c>
       <c r="F345">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:6">
       <c r="A346" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B346" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C346" s="1">
-        <v>44815</v>
+        <v>44706</v>
       </c>
       <c r="D346">
-        <v>0.9700810185185186</v>
+        <v>0.334675925925926</v>
       </c>
       <c r="F346">
         <v>1</v>
@@ -8102,16 +8141,16 @@
     </row>
     <row r="347" spans="1:6">
       <c r="A347" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B347" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C347" s="1">
-        <v>44843</v>
+        <v>44733</v>
       </c>
       <c r="D347">
-        <v>0.09159722222222222</v>
+        <v>0.8997337962962962</v>
       </c>
       <c r="F347">
         <v>1</v>
@@ -8119,16 +8158,16 @@
     </row>
     <row r="348" spans="1:6">
       <c r="A348" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B348" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C348" s="1">
-        <v>44870</v>
+        <v>44761</v>
       </c>
       <c r="D348">
-        <v>0.1835185185185185</v>
+        <v>0.3745949074074074</v>
       </c>
       <c r="F348">
         <v>1</v>
@@ -8136,16 +8175,16 @@
     </row>
     <row r="349" spans="1:6">
       <c r="A349" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B349" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C349" s="1">
-        <v>44897</v>
+        <v>44788</v>
       </c>
       <c r="D349">
-        <v>0.3728240740740741</v>
+        <v>0.7376273148148148</v>
       </c>
       <c r="F349">
         <v>1</v>
@@ -8153,16 +8192,16 @@
     </row>
     <row r="350" spans="1:6">
       <c r="A350" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B350" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C350" s="1">
-        <v>44924</v>
+        <v>44815</v>
       </c>
       <c r="D350">
-        <v>0.7733680555555557</v>
+        <v>0.9700810185185186</v>
       </c>
       <c r="F350">
         <v>1</v>
@@ -8170,152 +8209,152 @@
     </row>
     <row r="351" spans="1:6">
       <c r="A351" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B351" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C351" s="1">
-        <v>44566</v>
+        <v>44843</v>
       </c>
       <c r="D351">
-        <v>0.03237268518518519</v>
+        <v>0.09159722222222222</v>
       </c>
       <c r="F351">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:6">
       <c r="A352" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B352" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C352" s="1">
-        <v>44593</v>
+        <v>44870</v>
       </c>
       <c r="D352">
-        <v>0.7062268518518519</v>
+        <v>0.1835185185185185</v>
       </c>
       <c r="F352">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:6">
       <c r="A353" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B353" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C353" s="1">
-        <v>44621</v>
+        <v>44897</v>
       </c>
       <c r="D353">
-        <v>0.3228703703703704</v>
+        <v>0.3728240740740741</v>
       </c>
       <c r="F353">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:6">
       <c r="A354" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B354" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C354" s="1">
-        <v>44648</v>
+        <v>44924</v>
       </c>
       <c r="D354">
-        <v>0.8204166666666667</v>
+        <v>0.7733680555555557</v>
       </c>
       <c r="F354">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:6">
       <c r="A355" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B355" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C355" s="1">
-        <v>44676</v>
+        <v>44566</v>
       </c>
       <c r="D355">
-        <v>0.2049074074074074</v>
+        <v>0.03237268518518519</v>
       </c>
       <c r="F355">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="356" spans="1:6">
       <c r="A356" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B356" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C356" s="1">
-        <v>44703</v>
+        <v>44593</v>
       </c>
       <c r="D356">
-        <v>0.529849537037037</v>
+        <v>0.7062268518518519</v>
       </c>
       <c r="F356">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:6">
       <c r="A357" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B357" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C357" s="1">
-        <v>44730</v>
+        <v>44621</v>
       </c>
       <c r="D357">
-        <v>0.8487037037037037</v>
+        <v>0.3228703703703704</v>
       </c>
       <c r="F357">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358" spans="1:6">
       <c r="A358" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B358" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C358" s="1">
-        <v>44758</v>
+        <v>44648</v>
       </c>
       <c r="D358">
-        <v>0.178287037037037</v>
+        <v>0.8204166666666667</v>
       </c>
       <c r="F358">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:6">
       <c r="A359" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B359" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C359" s="1">
-        <v>44785</v>
+        <v>44676</v>
       </c>
       <c r="D359">
-        <v>0.4970949074074074</v>
+        <v>0.2049074074074074</v>
       </c>
       <c r="F359">
         <v>1</v>
@@ -8323,16 +8362,16 @@
     </row>
     <row r="360" spans="1:6">
       <c r="A360" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B360" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C360" s="1">
-        <v>44812</v>
+        <v>44703</v>
       </c>
       <c r="D360">
-        <v>0.7715624999999999</v>
+        <v>0.529849537037037</v>
       </c>
       <c r="F360">
         <v>1</v>
@@ -8340,16 +8379,16 @@
     </row>
     <row r="361" spans="1:6">
       <c r="A361" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B361" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C361" s="1">
-        <v>44839</v>
+        <v>44730</v>
       </c>
       <c r="D361">
-        <v>0.9939583333333334</v>
+        <v>0.8487037037037037</v>
       </c>
       <c r="F361">
         <v>1</v>
@@ -8357,16 +8396,16 @@
     </row>
     <row r="362" spans="1:6">
       <c r="A362" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B362" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C362" s="1">
-        <v>44867</v>
+        <v>44758</v>
       </c>
       <c r="D362">
-        <v>0.2139351851851852</v>
+        <v>0.178287037037037</v>
       </c>
       <c r="F362">
         <v>1</v>
@@ -8374,16 +8413,16 @@
     </row>
     <row r="363" spans="1:6">
       <c r="A363" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B363" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C363" s="1">
-        <v>44894</v>
+        <v>44785</v>
       </c>
       <c r="D363">
-        <v>0.5276041666666667</v>
+        <v>0.4970949074074074</v>
       </c>
       <c r="F363">
         <v>1</v>
@@ -8391,33 +8430,33 @@
     </row>
     <row r="364" spans="1:6">
       <c r="A364" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B364" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="C364" s="1">
-        <v>44922</v>
+        <v>44812</v>
       </c>
       <c r="D364">
-        <v>0.007719907407407407</v>
+        <v>0.7715624999999999</v>
       </c>
       <c r="F364">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B365" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C365" s="1">
-        <v>44572</v>
+        <v>44839</v>
       </c>
       <c r="D365">
-        <v>0.8105092592592592</v>
+        <v>0.9939583333333334</v>
       </c>
       <c r="F365">
         <v>1</v>
@@ -8425,16 +8464,16 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B366" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C366" s="1">
-        <v>44600</v>
+        <v>44867</v>
       </c>
       <c r="D366">
-        <v>0.1520601851851852</v>
+        <v>0.2139351851851852</v>
       </c>
       <c r="F366">
         <v>1</v>
@@ -8442,84 +8481,84 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B367" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C367" s="1">
-        <v>44627</v>
+        <v>44894</v>
       </c>
       <c r="D367">
-        <v>0.5887847222222222</v>
+        <v>0.5276041666666667</v>
       </c>
       <c r="F367">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:6">
       <c r="A368" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B368" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C368" s="1">
-        <v>44655</v>
+        <v>44922</v>
       </c>
       <c r="D368">
-        <v>0.06019675925925926</v>
+        <v>0.007719907407407407</v>
       </c>
       <c r="F368">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:6">
       <c r="A369" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B369" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C369" s="1">
-        <v>44682</v>
+        <v>44572</v>
       </c>
       <c r="D369">
-        <v>0.5072569444444445</v>
+        <v>0.8105092592592592</v>
       </c>
       <c r="F369">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:6">
       <c r="A370" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B370" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C370" s="1">
-        <v>44709</v>
+        <v>44600</v>
       </c>
       <c r="D370">
-        <v>0.9039583333333333</v>
+        <v>0.1520601851851852</v>
       </c>
       <c r="F370">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:6">
       <c r="A371" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B371" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C371" s="1">
-        <v>44737</v>
+        <v>44627</v>
       </c>
       <c r="D371">
-        <v>0.2589236111111111</v>
+        <v>0.5887847222222222</v>
       </c>
       <c r="F371">
         <v>2</v>
@@ -8527,84 +8566,84 @@
     </row>
     <row r="372" spans="1:6">
       <c r="A372" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B372" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C372" s="1">
-        <v>44764</v>
+        <v>44655</v>
       </c>
       <c r="D372">
-        <v>0.5982638888888888</v>
+        <v>0.06019675925925926</v>
       </c>
       <c r="F372">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373" spans="1:6">
       <c r="A373" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B373" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C373" s="1">
-        <v>44791</v>
+        <v>44682</v>
       </c>
       <c r="D373">
-        <v>0.9428009259259259</v>
+        <v>0.5072569444444445</v>
       </c>
       <c r="F373">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:6">
       <c r="A374" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B374" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C374" s="1">
-        <v>44819</v>
+        <v>44709</v>
       </c>
       <c r="D374">
-        <v>0.2907407407407407</v>
+        <v>0.9039583333333333</v>
       </c>
       <c r="F374">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:6">
       <c r="A375" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B375" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C375" s="1">
-        <v>44846</v>
+        <v>44737</v>
       </c>
       <c r="D375">
-        <v>0.615474537037037</v>
+        <v>0.2589236111111111</v>
       </c>
       <c r="F375">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:6">
       <c r="A376" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B376" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C376" s="1">
-        <v>44873</v>
+        <v>44764</v>
       </c>
       <c r="D376">
-        <v>0.8826620370370369</v>
+        <v>0.5982638888888888</v>
       </c>
       <c r="F376">
         <v>1</v>
@@ -8612,16 +8651,16 @@
     </row>
     <row r="377" spans="1:6">
       <c r="A377" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B377" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C377" s="1">
-        <v>44901</v>
+        <v>44791</v>
       </c>
       <c r="D377">
-        <v>0.08282407407407408</v>
+        <v>0.9428009259259259</v>
       </c>
       <c r="F377">
         <v>1</v>
@@ -8629,16 +8668,16 @@
     </row>
     <row r="378" spans="1:6">
       <c r="A378" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B378" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C378" s="1">
-        <v>44568</v>
+        <v>44819</v>
       </c>
       <c r="D378">
-        <v>0.7401851851851852</v>
+        <v>0.2907407407407407</v>
       </c>
       <c r="F378">
         <v>1</v>
@@ -8646,152 +8685,152 @@
     </row>
     <row r="379" spans="1:6">
       <c r="A379" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B379" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C379" s="1">
-        <v>44596</v>
+        <v>44846</v>
       </c>
       <c r="D379">
-        <v>0.2171296296296296</v>
+        <v>0.615474537037037</v>
       </c>
       <c r="F379">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:6">
       <c r="A380" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B380" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C380" s="1">
-        <v>44623</v>
+        <v>44873</v>
       </c>
       <c r="D380">
-        <v>0.7099305555555556</v>
+        <v>0.8826620370370369</v>
       </c>
       <c r="F380">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:6">
       <c r="A381" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B381" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C381" s="1">
-        <v>44651</v>
+        <v>44901</v>
       </c>
       <c r="D381">
-        <v>0.1372916666666667</v>
+        <v>0.08282407407407408</v>
       </c>
       <c r="F381">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:6">
       <c r="A382" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B382" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C382" s="1">
-        <v>44678</v>
+        <v>44568</v>
       </c>
       <c r="D382">
-        <v>0.4725462962962963</v>
+        <v>0.7401851851851852</v>
       </c>
       <c r="F382">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:6">
       <c r="A383" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B383" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C383" s="1">
-        <v>44705</v>
+        <v>44596</v>
       </c>
       <c r="D383">
-        <v>0.7507175925925925</v>
+        <v>0.2171296296296296</v>
       </c>
       <c r="F383">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:6">
       <c r="A384" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B384" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C384" s="1">
-        <v>44733</v>
+        <v>44623</v>
       </c>
       <c r="D384">
-        <v>0.035</v>
+        <v>0.7099305555555556</v>
       </c>
       <c r="F384">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="385" spans="1:6">
       <c r="A385" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B385" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C385" s="1">
-        <v>44760</v>
+        <v>44651</v>
       </c>
       <c r="D385">
-        <v>0.3682291666666667</v>
+        <v>0.1372916666666667</v>
       </c>
       <c r="F385">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:6">
       <c r="A386" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B386" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C386" s="1">
-        <v>44787</v>
+        <v>44678</v>
       </c>
       <c r="D386">
-        <v>0.7453240740740741</v>
+        <v>0.4725462962962963</v>
       </c>
       <c r="F386">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:6">
       <c r="A387" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B387" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C387" s="1">
-        <v>44815</v>
+        <v>44705</v>
       </c>
       <c r="D387">
-        <v>0.120787037037037</v>
+        <v>0.7507175925925925</v>
       </c>
       <c r="F387">
         <v>1</v>
@@ -8799,16 +8838,16 @@
     </row>
     <row r="388" spans="1:6">
       <c r="A388" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B388" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C388" s="1">
-        <v>44842</v>
+        <v>44733</v>
       </c>
       <c r="D388">
-        <v>0.4397453703703704</v>
+        <v>0.035</v>
       </c>
       <c r="F388">
         <v>1</v>
@@ -8816,16 +8855,16 @@
     </row>
     <row r="389" spans="1:6">
       <c r="A389" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B389" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C389" s="1">
-        <v>44869</v>
+        <v>44760</v>
       </c>
       <c r="D389">
-        <v>0.6805671296296296</v>
+        <v>0.3682291666666667</v>
       </c>
       <c r="F389">
         <v>1</v>
@@ -8833,16 +8872,16 @@
     </row>
     <row r="390" spans="1:6">
       <c r="A390" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B390" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C390" s="1">
-        <v>44896</v>
+        <v>44787</v>
       </c>
       <c r="D390">
-        <v>0.8904166666666667</v>
+        <v>0.7453240740740741</v>
       </c>
       <c r="F390">
         <v>1</v>
@@ -8850,16 +8889,16 @@
     </row>
     <row r="391" spans="1:6">
       <c r="A391" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B391" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C391" s="1">
-        <v>44924</v>
+        <v>44815</v>
       </c>
       <c r="D391">
-        <v>0.1684490740740741</v>
+        <v>0.120787037037037</v>
       </c>
       <c r="F391">
         <v>1</v>
@@ -8867,121 +8906,121 @@
     </row>
     <row r="392" spans="1:6">
       <c r="A392" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B392" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C392" s="1">
-        <v>44697</v>
+        <v>44842</v>
       </c>
       <c r="D392">
-        <v>0.5079976851851852</v>
-      </c>
-      <c r="F392" t="s">
-        <v>402</v>
+        <v>0.4397453703703704</v>
+      </c>
+      <c r="F392">
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:6">
       <c r="A393" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B393" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C393" s="1">
-        <v>44873</v>
+        <v>44869</v>
       </c>
       <c r="D393">
-        <v>0.7910995370370371</v>
-      </c>
-      <c r="F393" t="s">
-        <v>402</v>
+        <v>0.6805671296296296</v>
+      </c>
+      <c r="F393">
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:6">
       <c r="A394" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B394" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C394" s="1">
-        <v>44830</v>
+        <v>44896</v>
       </c>
       <c r="D394">
-        <v>0.3847453703703703</v>
-      </c>
-      <c r="F394" t="s">
-        <v>403</v>
+        <v>0.8904166666666667</v>
+      </c>
+      <c r="F394">
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:6">
       <c r="A395" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B395" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C395" s="1">
-        <v>44888</v>
+        <v>44924</v>
       </c>
       <c r="D395">
-        <v>0.0237037037037037</v>
-      </c>
-      <c r="F395" t="s">
-        <v>403</v>
+        <v>0.1684490740740741</v>
+      </c>
+      <c r="F395">
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:6">
       <c r="A396" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B396" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C396" s="1">
-        <v>44924</v>
+        <v>44697</v>
       </c>
       <c r="D396">
-        <v>0.7206597222222223</v>
+        <v>0.5079976851851852</v>
       </c>
       <c r="F396" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="397" spans="1:6">
       <c r="A397" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B397" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C397" s="1">
-        <v>44641</v>
+        <v>44873</v>
       </c>
       <c r="D397">
-        <v>0.2618055555555556</v>
+        <v>0.7910995370370371</v>
       </c>
       <c r="F397" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="398" spans="1:6">
       <c r="A398" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B398" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C398" s="1">
-        <v>44622</v>
+        <v>44830</v>
       </c>
       <c r="D398">
-        <v>0.8568055555555555</v>
+        <v>0.3847453703703703</v>
       </c>
       <c r="F398" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8989,50 +9028,50 @@
         <v>78</v>
       </c>
       <c r="B399" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C399" s="1">
-        <v>44669</v>
+        <v>44888</v>
       </c>
       <c r="D399">
-        <v>0.9062037037037037</v>
-      </c>
-      <c r="F399">
-        <v>3</v>
+        <v>0.0237037037037037</v>
+      </c>
+      <c r="F399" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="400" spans="1:6">
       <c r="A400" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B400" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C400" s="1">
-        <v>44643</v>
+        <v>44924</v>
       </c>
       <c r="D400">
-        <v>0.846400462962963</v>
-      </c>
-      <c r="F400">
-        <v>3</v>
+        <v>0.7206597222222223</v>
+      </c>
+      <c r="F400" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="401" spans="1:6">
       <c r="A401" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B401" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C401" s="1">
-        <v>44605</v>
+        <v>44641</v>
       </c>
       <c r="D401">
-        <v>0.3878240740740741</v>
+        <v>0.2618055555555556</v>
       </c>
       <c r="F401" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -9040,16 +9079,16 @@
         <v>80</v>
       </c>
       <c r="B402" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C402" s="1">
-        <v>44632</v>
+        <v>44622</v>
       </c>
       <c r="D402">
-        <v>0.9246527777777778</v>
+        <v>0.8568055555555555</v>
       </c>
       <c r="F402" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -9057,16 +9096,16 @@
         <v>81</v>
       </c>
       <c r="B403" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C403" s="1">
-        <v>44682</v>
+        <v>44669</v>
       </c>
       <c r="D403">
-        <v>0.1126041666666667</v>
-      </c>
-      <c r="F403" t="s">
-        <v>403</v>
+        <v>0.9062037037037037</v>
+      </c>
+      <c r="F403">
+        <v>3</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -9074,16 +9113,16 @@
         <v>82</v>
       </c>
       <c r="B404" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C404" s="1">
-        <v>44649</v>
+        <v>44643</v>
       </c>
       <c r="D404">
-        <v>0.8834606481481481</v>
-      </c>
-      <c r="F404" t="s">
-        <v>403</v>
+        <v>0.846400462962963</v>
+      </c>
+      <c r="F404">
+        <v>3</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -9091,81 +9130,81 @@
         <v>83</v>
       </c>
       <c r="B405" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C405" s="1">
-        <v>44723</v>
+        <v>44605</v>
       </c>
       <c r="D405">
-        <v>0.8871990740740742</v>
-      </c>
-      <c r="F405">
-        <v>3</v>
+        <v>0.3878240740740741</v>
+      </c>
+      <c r="F405" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="406" spans="1:6">
       <c r="A406" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B406" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C406" s="1">
-        <v>44679</v>
+        <v>44632</v>
       </c>
       <c r="D406">
-        <v>0.1303587962962963</v>
-      </c>
-      <c r="F406">
-        <v>3</v>
+        <v>0.9246527777777778</v>
+      </c>
+      <c r="F406" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="407" spans="1:6">
       <c r="A407" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B407" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C407" s="1">
-        <v>44710</v>
+        <v>44682</v>
       </c>
       <c r="D407">
-        <v>0.336087962962963</v>
+        <v>0.1126041666666667</v>
       </c>
       <c r="F407" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="408" spans="1:6">
       <c r="A408" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B408" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C408" s="1">
-        <v>44656</v>
+        <v>44649</v>
       </c>
       <c r="D408">
-        <v>0.253113425925926</v>
+        <v>0.8834606481481481</v>
       </c>
       <c r="F408" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="409" spans="1:6">
       <c r="A409" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B409" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C409" s="1">
-        <v>44774</v>
+        <v>44723</v>
       </c>
       <c r="D409">
-        <v>0.7273842592592592</v>
+        <v>0.8871990740740742</v>
       </c>
       <c r="F409">
         <v>3</v>
@@ -9173,16 +9212,16 @@
     </row>
     <row r="410" spans="1:6">
       <c r="A410" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B410" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C410" s="1">
-        <v>44699</v>
+        <v>44679</v>
       </c>
       <c r="D410">
-        <v>0.296724537037037</v>
+        <v>0.1303587962962963</v>
       </c>
       <c r="F410">
         <v>3</v>
@@ -9190,36 +9229,36 @@
     </row>
     <row r="411" spans="1:6">
       <c r="A411" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B411" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C411" s="1">
-        <v>44664</v>
+        <v>44710</v>
       </c>
       <c r="D411">
-        <v>0.1689814814814815</v>
-      </c>
-      <c r="F411">
-        <v>3</v>
+        <v>0.336087962962963</v>
+      </c>
+      <c r="F411" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="412" spans="1:6">
       <c r="A412" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B412" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C412" s="1">
-        <v>44585</v>
+        <v>44656</v>
       </c>
       <c r="D412">
-        <v>0.915949074074074</v>
-      </c>
-      <c r="F412">
-        <v>1</v>
+        <v>0.253113425925926</v>
+      </c>
+      <c r="F412" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -9227,64 +9266,64 @@
         <v>90</v>
       </c>
       <c r="B413" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C413" s="1">
-        <v>44613</v>
+        <v>44774</v>
       </c>
       <c r="D413">
-        <v>0.1485763888888889</v>
+        <v>0.7273842592592592</v>
       </c>
       <c r="F413">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:6">
       <c r="A414" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B414" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C414" s="1">
-        <v>44640</v>
+        <v>44699</v>
       </c>
       <c r="D414">
-        <v>0.4336342592592592</v>
+        <v>0.296724537037037</v>
       </c>
       <c r="F414">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:6">
       <c r="A415" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B415" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C415" s="1">
-        <v>44667</v>
+        <v>44664</v>
       </c>
       <c r="D415">
-        <v>0.805</v>
+        <v>0.1689814814814815</v>
       </c>
       <c r="F415">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:6">
       <c r="A416" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B416" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C416" s="1">
-        <v>44695</v>
+        <v>44585</v>
       </c>
       <c r="D416">
-        <v>0.228599537037037</v>
+        <v>0.915949074074074</v>
       </c>
       <c r="F416">
         <v>1</v>
@@ -9292,16 +9331,16 @@
     </row>
     <row r="417" spans="1:6">
       <c r="A417" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B417" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C417" s="1">
-        <v>44722</v>
+        <v>44613</v>
       </c>
       <c r="D417">
-        <v>0.6394791666666667</v>
+        <v>0.1485763888888889</v>
       </c>
       <c r="F417">
         <v>1</v>
@@ -9309,16 +9348,16 @@
     </row>
     <row r="418" spans="1:6">
       <c r="A418" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B418" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C418" s="1">
-        <v>44749</v>
+        <v>44640</v>
       </c>
       <c r="D418">
-        <v>0.9838425925925925</v>
+        <v>0.4336342592592592</v>
       </c>
       <c r="F418">
         <v>1</v>
@@ -9326,16 +9365,16 @@
     </row>
     <row r="419" spans="1:6">
       <c r="A419" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B419" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C419" s="1">
-        <v>44777</v>
+        <v>44667</v>
       </c>
       <c r="D419">
-        <v>0.2508333333333333</v>
+        <v>0.805</v>
       </c>
       <c r="F419">
         <v>1</v>
@@ -9343,152 +9382,152 @@
     </row>
     <row r="420" spans="1:6">
       <c r="A420" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B420" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C420" s="1">
-        <v>44804</v>
+        <v>44695</v>
       </c>
       <c r="D420">
-        <v>0.4824305555555555</v>
+        <v>0.228599537037037</v>
       </c>
       <c r="F420">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:6">
       <c r="A421" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B421" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C421" s="1">
-        <v>44831</v>
+        <v>44722</v>
       </c>
       <c r="D421">
-        <v>0.7476967592592593</v>
+        <v>0.6394791666666667</v>
       </c>
       <c r="F421">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:6">
       <c r="A422" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B422" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C422" s="1">
-        <v>44859</v>
+        <v>44749</v>
       </c>
       <c r="D422">
-        <v>0.09336805555555555</v>
+        <v>0.9838425925925925</v>
       </c>
       <c r="F422">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:6">
       <c r="A423" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B423" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C423" s="1">
-        <v>44886</v>
+        <v>44777</v>
       </c>
       <c r="D423">
-        <v>0.5078472222222222</v>
+        <v>0.2508333333333333</v>
       </c>
       <c r="F423">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:6">
       <c r="A424" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B424" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="C424" s="1">
-        <v>44913</v>
+        <v>44804</v>
       </c>
       <c r="D424">
-        <v>0.9256365740740741</v>
+        <v>0.4824305555555555</v>
       </c>
       <c r="F424">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:6">
       <c r="A425" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B425" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C425" s="1">
-        <v>44581</v>
+        <v>44831</v>
       </c>
       <c r="D425">
-        <v>0.7916203703703704</v>
+        <v>0.7476967592592593</v>
       </c>
       <c r="F425">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="426" spans="1:6">
       <c r="A426" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B426" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C426" s="1">
-        <v>44609</v>
+        <v>44859</v>
       </c>
       <c r="D426">
-        <v>0.07356481481481482</v>
+        <v>0.09336805555555555</v>
       </c>
       <c r="F426">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="427" spans="1:6">
       <c r="A427" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B427" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C427" s="1">
-        <v>44636</v>
+        <v>44886</v>
       </c>
       <c r="D427">
-        <v>0.4168518518518519</v>
+        <v>0.5078472222222222</v>
       </c>
       <c r="F427">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:6">
       <c r="A428" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B428" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C428" s="1">
-        <v>44663</v>
+        <v>44913</v>
       </c>
       <c r="D428">
-        <v>0.7927199074074074</v>
+        <v>0.9256365740740741</v>
       </c>
       <c r="F428">
         <v>1</v>
@@ -9496,16 +9535,16 @@
     </row>
     <row r="429" spans="1:6">
       <c r="A429" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B429" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C429" s="1">
-        <v>44691</v>
+        <v>44581</v>
       </c>
       <c r="D429">
-        <v>0.1530208333333333</v>
+        <v>0.7916203703703704</v>
       </c>
       <c r="F429">
         <v>1</v>
@@ -9513,16 +9552,16 @@
     </row>
     <row r="430" spans="1:6">
       <c r="A430" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B430" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C430" s="1">
-        <v>44718</v>
+        <v>44609</v>
       </c>
       <c r="D430">
-        <v>0.4634722222222222</v>
+        <v>0.07356481481481482</v>
       </c>
       <c r="F430">
         <v>1</v>
@@ -9530,84 +9569,84 @@
     </row>
     <row r="431" spans="1:6">
       <c r="A431" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B431" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C431" s="1">
-        <v>44745</v>
+        <v>44636</v>
       </c>
       <c r="D431">
-        <v>0.7234490740740741</v>
+        <v>0.4168518518518519</v>
       </c>
       <c r="F431">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:6">
       <c r="A432" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B432" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C432" s="1">
-        <v>44772</v>
+        <v>44663</v>
       </c>
       <c r="D432">
-        <v>0.96375</v>
+        <v>0.7927199074074074</v>
       </c>
       <c r="F432">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:6">
       <c r="A433" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B433" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C433" s="1">
-        <v>44800</v>
+        <v>44691</v>
       </c>
       <c r="D433">
-        <v>0.2257523148148148</v>
+        <v>0.1530208333333333</v>
       </c>
       <c r="F433">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:6">
       <c r="A434" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B434" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C434" s="1">
-        <v>44827</v>
+        <v>44718</v>
       </c>
       <c r="D434">
-        <v>0.5355671296296296</v>
+        <v>0.4634722222222222</v>
       </c>
       <c r="F434">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:6">
       <c r="A435" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B435" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C435" s="1">
-        <v>44854</v>
+        <v>44745</v>
       </c>
       <c r="D435">
-        <v>0.8872222222222224</v>
+        <v>0.7234490740740741</v>
       </c>
       <c r="F435">
         <v>2</v>
@@ -9615,50 +9654,50 @@
     </row>
     <row r="436" spans="1:6">
       <c r="A436" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B436" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C436" s="1">
-        <v>44882</v>
+        <v>44772</v>
       </c>
       <c r="D436">
-        <v>0.2449768518518519</v>
+        <v>0.96375</v>
       </c>
       <c r="F436">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:6">
       <c r="A437" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B437" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C437" s="1">
-        <v>44909</v>
+        <v>44800</v>
       </c>
       <c r="D437">
-        <v>0.5683564814814814</v>
+        <v>0.2257523148148148</v>
       </c>
       <c r="F437">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:6">
       <c r="A438" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B438" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C438" s="1">
-        <v>44589</v>
+        <v>44827</v>
       </c>
       <c r="D438">
-        <v>0.3111342592592592</v>
+        <v>0.5355671296296296</v>
       </c>
       <c r="F438">
         <v>2</v>
@@ -9666,33 +9705,33 @@
     </row>
     <row r="439" spans="1:6">
       <c r="A439" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B439" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C439" s="1">
-        <v>44616</v>
+        <v>44854</v>
       </c>
       <c r="D439">
-        <v>0.5760648148148148</v>
+        <v>0.8872222222222224</v>
       </c>
       <c r="F439">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:6">
       <c r="A440" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B440" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C440" s="1">
-        <v>44643</v>
+        <v>44882</v>
       </c>
       <c r="D440">
-        <v>0.8026388888888888</v>
+        <v>0.2449768518518519</v>
       </c>
       <c r="F440">
         <v>1</v>
@@ -9700,16 +9739,16 @@
     </row>
     <row r="441" spans="1:6">
       <c r="A441" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B441" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C441" s="1">
-        <v>44671</v>
+        <v>44909</v>
       </c>
       <c r="D441">
-        <v>0.0887962962962963</v>
+        <v>0.5683564814814814</v>
       </c>
       <c r="F441">
         <v>1</v>
@@ -9717,33 +9756,33 @@
     </row>
     <row r="442" spans="1:6">
       <c r="A442" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B442" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C442" s="1">
-        <v>44698</v>
+        <v>44589</v>
       </c>
       <c r="D442">
-        <v>0.4715162037037037</v>
+        <v>0.3111342592592592</v>
       </c>
       <c r="F442">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:6">
       <c r="A443" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B443" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C443" s="1">
-        <v>44725</v>
+        <v>44616</v>
       </c>
       <c r="D443">
-        <v>0.9150810185185185</v>
+        <v>0.5760648148148148</v>
       </c>
       <c r="F443">
         <v>1</v>
@@ -9751,16 +9790,16 @@
     </row>
     <row r="444" spans="1:6">
       <c r="A444" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B444" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C444" s="1">
-        <v>44753</v>
+        <v>44643</v>
       </c>
       <c r="D444">
-        <v>0.3487615740740741</v>
+        <v>0.8026388888888888</v>
       </c>
       <c r="F444">
         <v>1</v>
@@ -9768,16 +9807,16 @@
     </row>
     <row r="445" spans="1:6">
       <c r="A445" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B445" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C445" s="1">
-        <v>44780</v>
+        <v>44671</v>
       </c>
       <c r="D445">
-        <v>0.7094097222222221</v>
+        <v>0.0887962962962963</v>
       </c>
       <c r="F445">
         <v>1</v>
@@ -9785,16 +9824,16 @@
     </row>
     <row r="446" spans="1:6">
       <c r="A446" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B446" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C446" s="1">
-        <v>44807</v>
+        <v>44698</v>
       </c>
       <c r="D446">
-        <v>0.9785879629629629</v>
+        <v>0.4715162037037037</v>
       </c>
       <c r="F446">
         <v>1</v>
@@ -9802,16 +9841,16 @@
     </row>
     <row r="447" spans="1:6">
       <c r="A447" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B447" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C447" s="1">
-        <v>44835</v>
+        <v>44725</v>
       </c>
       <c r="D447">
-        <v>0.2035763888888889</v>
+        <v>0.9150810185185185</v>
       </c>
       <c r="F447">
         <v>1</v>
@@ -9819,67 +9858,67 @@
     </row>
     <row r="448" spans="1:6">
       <c r="A448" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B448" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C448" s="1">
-        <v>44862</v>
+        <v>44753</v>
       </c>
       <c r="D448">
-        <v>0.4726736111111112</v>
+        <v>0.3487615740740741</v>
       </c>
       <c r="F448">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:6">
       <c r="A449" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B449" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C449" s="1">
-        <v>44889</v>
+        <v>44780</v>
       </c>
       <c r="D449">
-        <v>0.845763888888889</v>
+        <v>0.7094097222222221</v>
       </c>
       <c r="F449">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:6">
       <c r="A450" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B450" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="C450" s="1">
-        <v>44917</v>
+        <v>44807</v>
       </c>
       <c r="D450">
-        <v>0.3018055555555555</v>
+        <v>0.9785879629629629</v>
       </c>
       <c r="F450">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:6">
       <c r="A451" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B451" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C451" s="1">
-        <v>44575</v>
+        <v>44835</v>
       </c>
       <c r="D451">
-        <v>0.3990277777777778</v>
+        <v>0.2035763888888889</v>
       </c>
       <c r="F451">
         <v>1</v>
@@ -9887,118 +9926,118 @@
     </row>
     <row r="452" spans="1:6">
       <c r="A452" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B452" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C452" s="1">
-        <v>44602</v>
+        <v>44862</v>
       </c>
       <c r="D452">
-        <v>0.703125</v>
+        <v>0.4726736111111112</v>
       </c>
       <c r="F452">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:6">
       <c r="A453" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B453" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C453" s="1">
-        <v>44630</v>
+        <v>44889</v>
       </c>
       <c r="D453">
-        <v>0.04074074074074074</v>
+        <v>0.845763888888889</v>
       </c>
       <c r="F453">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:6">
       <c r="A454" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B454" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C454" s="1">
-        <v>44657</v>
+        <v>44917</v>
       </c>
       <c r="D454">
-        <v>0.3861111111111111</v>
+        <v>0.3018055555555555</v>
       </c>
       <c r="F454">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="455" spans="1:6">
       <c r="A455" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B455" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C455" s="1">
-        <v>44684</v>
+        <v>44575</v>
       </c>
       <c r="D455">
-        <v>0.706238425925926</v>
+        <v>0.3990277777777778</v>
       </c>
       <c r="F455">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:6">
       <c r="A456" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B456" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C456" s="1">
-        <v>44711</v>
+        <v>44602</v>
       </c>
       <c r="D456">
-        <v>0.9850462962962964</v>
+        <v>0.703125</v>
       </c>
       <c r="F456">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:6">
       <c r="A457" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B457" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C457" s="1">
-        <v>44739</v>
+        <v>44630</v>
       </c>
       <c r="D457">
-        <v>0.2338078703703703</v>
+        <v>0.04074074074074074</v>
       </c>
       <c r="F457">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:6">
       <c r="A458" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B458" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C458" s="1">
-        <v>44766</v>
+        <v>44657</v>
       </c>
       <c r="D458">
-        <v>0.4836342592592592</v>
+        <v>0.3861111111111111</v>
       </c>
       <c r="F458">
         <v>2</v>
@@ -10006,84 +10045,84 @@
     </row>
     <row r="459" spans="1:6">
       <c r="A459" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B459" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C459" s="1">
-        <v>44793</v>
+        <v>44684</v>
       </c>
       <c r="D459">
-        <v>0.7667708333333333</v>
+        <v>0.706238425925926</v>
       </c>
       <c r="F459">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:6">
       <c r="A460" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B460" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C460" s="1">
-        <v>44821</v>
+        <v>44711</v>
       </c>
       <c r="D460">
-        <v>0.09631944444444444</v>
+        <v>0.9850462962962964</v>
       </c>
       <c r="F460">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:6">
       <c r="A461" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B461" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C461" s="1">
-        <v>44848</v>
+        <v>44739</v>
       </c>
       <c r="D461">
-        <v>0.4557870370370371</v>
+        <v>0.2338078703703703</v>
       </c>
       <c r="F461">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="462" spans="1:6">
       <c r="A462" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B462" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C462" s="1">
-        <v>44875</v>
+        <v>44766</v>
       </c>
       <c r="D462">
-        <v>0.8067708333333333</v>
+        <v>0.4836342592592592</v>
       </c>
       <c r="F462">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:6">
       <c r="A463" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B463" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C463" s="1">
-        <v>44903</v>
+        <v>44793</v>
       </c>
       <c r="D463">
-        <v>0.113287037037037</v>
+        <v>0.7667708333333333</v>
       </c>
       <c r="F463">
         <v>1</v>
@@ -10091,16 +10130,16 @@
     </row>
     <row r="464" spans="1:6">
       <c r="A464" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B464" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C464" s="1">
-        <v>44579</v>
+        <v>44821</v>
       </c>
       <c r="D464">
-        <v>0.009039351851851852</v>
+        <v>0.09631944444444444</v>
       </c>
       <c r="F464">
         <v>1</v>
@@ -10108,16 +10147,16 @@
     </row>
     <row r="465" spans="1:6">
       <c r="A465" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B465" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C465" s="1">
-        <v>44606</v>
+        <v>44848</v>
       </c>
       <c r="D465">
-        <v>0.3111805555555556</v>
+        <v>0.4557870370370371</v>
       </c>
       <c r="F465">
         <v>1</v>
@@ -10125,16 +10164,16 @@
     </row>
     <row r="466" spans="1:6">
       <c r="A466" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B466" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C466" s="1">
-        <v>44633</v>
+        <v>44875</v>
       </c>
       <c r="D466">
-        <v>0.6490046296296296</v>
+        <v>0.8067708333333333</v>
       </c>
       <c r="F466">
         <v>1</v>
@@ -10142,16 +10181,16 @@
     </row>
     <row r="467" spans="1:6">
       <c r="A467" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B467" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C467" s="1">
-        <v>44660</v>
+        <v>44903</v>
       </c>
       <c r="D467">
-        <v>0.9935879629629629</v>
+        <v>0.113287037037037</v>
       </c>
       <c r="F467">
         <v>1</v>
@@ -10159,16 +10198,16 @@
     </row>
     <row r="468" spans="1:6">
       <c r="A468" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B468" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C468" s="1">
-        <v>44688</v>
+        <v>44579</v>
       </c>
       <c r="D468">
-        <v>0.3139351851851852</v>
+        <v>0.009039351851851852</v>
       </c>
       <c r="F468">
         <v>1</v>
@@ -10176,137 +10215,205 @@
     </row>
     <row r="469" spans="1:6">
       <c r="A469" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B469" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C469" s="1">
-        <v>44715</v>
+        <v>44606</v>
       </c>
       <c r="D469">
-        <v>0.5959606481481482</v>
+        <v>0.3111805555555556</v>
       </c>
       <c r="F469">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:6">
       <c r="A470" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B470" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C470" s="1">
-        <v>44742</v>
+        <v>44633</v>
       </c>
       <c r="D470">
-        <v>0.8489930555555555</v>
+        <v>0.6490046296296296</v>
       </c>
       <c r="F470">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:6">
       <c r="A471" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B471" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C471" s="1">
-        <v>44770</v>
+        <v>44660</v>
       </c>
       <c r="D471">
-        <v>0.09842592592592593</v>
+        <v>0.9935879629629629</v>
       </c>
       <c r="F471">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:6">
       <c r="A472" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B472" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C472" s="1">
-        <v>44797</v>
+        <v>44688</v>
       </c>
       <c r="D472">
-        <v>0.3708217592592593</v>
+        <v>0.3139351851851852</v>
       </c>
       <c r="F472">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:6">
       <c r="A473" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B473" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C473" s="1">
-        <v>44824</v>
+        <v>44715</v>
       </c>
       <c r="D473">
-        <v>0.6788310185185186</v>
+        <v>0.5959606481481482</v>
       </c>
       <c r="F473">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:6">
       <c r="A474" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B474" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C474" s="1">
-        <v>44852</v>
+        <v>44742</v>
       </c>
       <c r="D474">
-        <v>0.01321759259259259</v>
+        <v>0.8489930555555555</v>
       </c>
       <c r="F474">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="475" spans="1:6">
       <c r="A475" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B475" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C475" s="1">
-        <v>44879</v>
+        <v>44770</v>
       </c>
       <c r="D475">
-        <v>0.3476851851851852</v>
+        <v>0.09842592592592593</v>
       </c>
       <c r="F475">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="476" spans="1:6">
       <c r="A476" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B476" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C476" s="1">
+        <v>44797</v>
+      </c>
+      <c r="D476">
+        <v>0.3708217592592593</v>
+      </c>
+      <c r="F476">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
+      <c r="A477" t="s">
+        <v>97</v>
+      </c>
+      <c r="B477" t="s">
+        <v>195</v>
+      </c>
+      <c r="C477" s="1">
+        <v>44824</v>
+      </c>
+      <c r="D477">
+        <v>0.6788310185185186</v>
+      </c>
+      <c r="F477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
+      <c r="A478" t="s">
+        <v>97</v>
+      </c>
+      <c r="B478" t="s">
+        <v>195</v>
+      </c>
+      <c r="C478" s="1">
+        <v>44852</v>
+      </c>
+      <c r="D478">
+        <v>0.01321759259259259</v>
+      </c>
+      <c r="F478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
+      <c r="A479" t="s">
+        <v>97</v>
+      </c>
+      <c r="B479" t="s">
+        <v>195</v>
+      </c>
+      <c r="C479" s="1">
+        <v>44879</v>
+      </c>
+      <c r="D479">
+        <v>0.3476851851851852</v>
+      </c>
+      <c r="F479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
+      <c r="A480" t="s">
+        <v>97</v>
+      </c>
+      <c r="B480" t="s">
+        <v>195</v>
+      </c>
+      <c r="C480" s="1">
         <v>44906</v>
       </c>
-      <c r="D476">
+      <c r="D480">
         <v>0.6559837962962963</v>
       </c>
-      <c r="F476">
+      <c r="F480">
         <v>1</v>
       </c>
     </row>
